--- a/contract_update.xlsx
+++ b/contract_update.xlsx
@@ -20,249 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="473">
   <si>
     <t xml:space="preserve">barcode</t>
   </si>
   <si>
     <t xml:space="preserve">base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0269</t>
   </si>
   <si>
     <t xml:space="preserve">0274</t>
@@ -1686,11 +1449,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1708,137 +1472,27 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1849,7 +1503,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1873,23 +1527,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1900,96 +1537,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1998,10 +1558,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B551"/>
+  <dimension ref="A1:B472"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2022,7 +1582,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>480000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2030,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>145223.6316</v>
+        <v>562320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,7 +1598,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>349944</v>
+        <v>846088.32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>360000</v>
+        <v>436632</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,7 +1614,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>180000</v>
+        <v>514080</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,7 +1622,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>217402.8</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,7 +1630,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>298320</v>
+        <v>197002.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,7 +1638,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>180000</v>
+        <v>491832</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,7 +1654,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>204202.8</v>
+        <v>339000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,7 +1662,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>210802.8</v>
+        <v>279729.45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2110,7 +1670,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>147863.6316</v>
+        <v>143581.7472</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,7 +1678,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>204202.8</v>
+        <v>130935.2316</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,7 +1686,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>792000</v>
+        <v>130935.2316</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,7 +1694,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>195375.36</v>
+        <v>298320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,7 +1702,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1085304</v>
+        <v>161946.12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,7 +1710,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>279600</v>
+        <v>161946.12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,7 +1718,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>300000</v>
+        <v>161946.12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,7 +1726,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>470400</v>
+        <v>181826.76</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,7 +1734,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>252012</v>
+        <v>161946.12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,7 +1742,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>217642.8</v>
+        <v>161946.12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,7 +1750,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>214764.6</v>
+        <v>161946.12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,7 +1758,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>539160</v>
+        <v>370811.76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2206,7 +1766,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>111394.7544</v>
+        <v>132584.2632</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,7 +1774,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1083600</v>
+        <v>98612.8128</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2222,7 +1782,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>230602.8</v>
+        <v>218878.32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2230,7 +1790,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>253613.624490649</v>
+        <v>200808.84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,7 +1798,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>495600</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,7 +1806,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>313812</v>
+        <v>136707.342</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>336000</v>
+        <v>141975.9156</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,7 +1822,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>212760.24</v>
+        <v>285012</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2270,7 +1830,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>180462</v>
+        <v>289939.92</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,7 +1838,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>197602.8</v>
+        <v>141975.9156</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,7 +1846,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>167322</v>
+        <v>236947.8</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,7 +1854,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>540336.24</v>
+        <v>471600</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,7 +1862,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>204202.8</v>
+        <v>396000</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,7 +1870,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>322449.6</v>
+        <v>339056.94</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,7 +1878,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>291348</v>
+        <v>465653.76</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,7 +1886,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>291348</v>
+        <v>285012</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,7 +1894,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>243552</v>
+        <v>221012.4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,7 +1902,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>291348</v>
+        <v>136707.342</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,7 +1910,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>293244</v>
+        <v>188506.6896</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,7 +1918,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>600000</v>
+        <v>126558.5328</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,7 +1926,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>264600</v>
+        <v>144952.5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,7 +1934,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>221002.8</v>
+        <v>137826.4344</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,7 +1942,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>420000</v>
+        <v>124300.6128</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,7 +1950,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>312000</v>
+        <v>131617.752</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,7 +1958,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>221002.8</v>
+        <v>129269.112</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,7 +1966,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>336000</v>
+        <v>145105.4292</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,7 +1974,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>480000</v>
+        <v>151623.9456</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,7 +1982,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>276000</v>
+        <v>206842.8</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,7 +1990,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>198057</v>
+        <v>135366.4344</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,7 +1998,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>191496</v>
+        <v>149113.5096</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,7 +2006,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>276000</v>
+        <v>161342.4</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,7 +2014,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>360000</v>
+        <v>229667.76</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,7 +2022,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>387000</v>
+        <v>170608.8</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,7 +2030,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1475779.68</v>
+        <v>280098</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,7 +2038,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>480000</v>
+        <v>175245.6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,7 +2046,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>552000</v>
+        <v>190124.4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,7 +2054,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>466800</v>
+        <v>175245.6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,7 +2062,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>759000</v>
+        <v>262828.8</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,7 +2070,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>756000</v>
+        <v>252720</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,7 +2078,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>300000</v>
+        <v>318000</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,7 +2086,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>204202.8</v>
+        <v>230602.8</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2534,7 +2094,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>420000</v>
+        <v>358662</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,7 +2102,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>405678.6</v>
+        <v>355285.56</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,7 +2110,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>291372.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2558,7 +2118,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>238121.52</v>
+        <v>941383.8</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,7 +2126,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>267321.6</v>
+        <v>337101.6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,7 +2134,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>224662.8</v>
+        <v>91357.4736</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,7 +2142,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>210802.8</v>
+        <v>258000</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2590,7 +2150,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>339000</v>
+        <v>739200</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,7 +2158,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>227470.8</v>
+        <v>766072.8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,7 +2166,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>442644</v>
+        <v>308880</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,7 +2174,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>227002.8</v>
+        <v>209390.4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,7 +2182,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>201502.8</v>
+        <v>176449.44</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,7 +2190,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>618000</v>
+        <v>174118.8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,7 +2198,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>276000</v>
+        <v>155139</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,7 +2206,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>309000</v>
+        <v>157958.76</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,7 +2214,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>288000</v>
+        <v>135366.4344</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,7 +2222,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>562320</v>
+        <v>141516.4344</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2670,7 +2230,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>846088.32</v>
+        <v>193102.8</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,7 +2238,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>436632</v>
+        <v>480004.7064</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,7 +2246,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>514080</v>
+        <v>107847.7896</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,7 +2254,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>233002.8</v>
+        <v>99602.6316</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,7 +2262,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>197002.8</v>
+        <v>1260000</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,7 +2270,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>491832</v>
+        <v>107847.7896</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,7 +2278,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>224662.8</v>
+        <v>430702.8</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,7 +2286,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>339000</v>
+        <v>356892</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,7 +2294,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>279729.45</v>
+        <v>335400</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,7 +2302,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>143581.7472</v>
+        <v>528000</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,7 +2310,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>130935.2316</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,7 +2318,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>130935.2316</v>
+        <v>236662.8</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,7 +2326,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>298320</v>
+        <v>312964.8</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,7 +2334,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>161946.12</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,7 +2342,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>161946.12</v>
+        <v>504948</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,7 +2350,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>161946.12</v>
+        <v>175245.6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,7 +2358,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>181826.76</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,7 +2366,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>161946.12</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,7 +2374,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>161946.12</v>
+        <v>272727</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,7 +2382,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>161946.12</v>
+        <v>279850.2</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,7 +2390,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>370811.76</v>
+        <v>204718.8</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,7 +2398,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>132584.2632</v>
+        <v>1146817.44</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,7 +2406,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>98612.8128</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,7 +2414,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>218878.32</v>
+        <v>365952</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,7 +2422,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>200808.84</v>
+        <v>509942.4</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,7 +2430,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>408000</v>
+        <v>180226.2</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,7 +2438,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>136707.342</v>
+        <v>231514.32</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,7 +2446,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>141975.9156</v>
+        <v>252074.16</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,7 +2454,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>285012</v>
+        <v>314130.96</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,7 +2462,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>289939.92</v>
+        <v>109496.8212</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,7 +2470,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>141975.9156</v>
+        <v>70684.5264</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,7 +2478,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>236947.8</v>
+        <v>113069.9472</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,7 +2486,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>471600</v>
+        <v>314130.96</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,7 +2494,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>396000</v>
+        <v>2011590</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,7 +2502,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>339056.94</v>
+        <v>1047551.4</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,7 +2510,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>465653.76</v>
+        <v>388860.12</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,7 +2518,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>285012</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,7 +2526,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>221012.4</v>
+        <v>173807.478</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,7 +2534,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>136707.342</v>
+        <v>285012</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,7 +2542,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>188506.6896</v>
+        <v>155659.4004</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,7 +2550,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>126558.5328</v>
+        <v>428832</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,7 +2558,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>144952.5</v>
+        <v>556656</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,7 +2566,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>137826.4344</v>
+        <v>150807.4896</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,7 +2574,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>124300.6128</v>
+        <v>972052.2</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,7 +2582,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>131617.752</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,7 +2590,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>129269.112</v>
+        <v>238913.4</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,7 +2598,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>145105.4292</v>
+        <v>228874.8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,7 +2606,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>151623.9456</v>
+        <v>288107.82</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,7 +2614,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>206842.8</v>
+        <v>259104</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,7 +2622,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>135366.4344</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,7 +2630,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>149113.5096</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,7 +2638,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>161342.4</v>
+        <v>245002.8</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,7 +2646,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>229667.76</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,7 +2654,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>170608.8</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,7 +2662,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>280098</v>
+        <v>447480</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,7 +2670,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>175245.6</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,7 +2678,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>190124.4</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,7 +2686,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>175245.6</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,7 +2694,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>262828.8</v>
+        <v>339000</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3142,7 +2702,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>252720</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,7 +2710,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>318000</v>
+        <v>213399.6</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,7 +2718,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>230602.8</v>
+        <v>245002.8</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,7 +2726,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>358662</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,7 +2734,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>355285.56</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3182,7 +2742,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>0</v>
+        <v>288545.25</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,7 +2750,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>941383.8</v>
+        <v>364425</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,7 +2758,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>337101.6</v>
+        <v>695671.2</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,7 +2766,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>91357.4736</v>
+        <v>276276.9</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,7 +2774,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>258000</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,7 +2782,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>739200</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,7 +2790,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>766072.8</v>
+        <v>286680</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,7 +2798,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>308880</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,7 +2806,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>209390.4</v>
+        <v>607200</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,7 +2814,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>176449.44</v>
+        <v>280725.6</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,7 +2822,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>174118.8</v>
+        <v>288868.8</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3270,7 +2830,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>155139</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,7 +2838,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>157958.76</v>
+        <v>299999.7</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,7 +2846,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>135366.4344</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,7 +2854,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>141516.4344</v>
+        <v>264724.2</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,7 +2862,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>193102.8</v>
+        <v>364425</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,7 +2870,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>480004.7064</v>
+        <v>173002.8</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,7 +2878,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>107847.7896</v>
+        <v>444000</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,7 +2886,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>99602.6316</v>
+        <v>396750</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,7 +2894,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>1260000</v>
+        <v>411165</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,7 +2902,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>107847.7896</v>
+        <v>239002.8</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,7 +2910,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>430702.8</v>
+        <v>358701.12</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,7 +2918,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>356892</v>
+        <v>358320</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,7 +2926,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>335400</v>
+        <v>1061713.8</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,7 +2934,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>528000</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,7 +2942,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>480000</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,7 +2950,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>236662.8</v>
+        <v>236569.2</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,7 +2958,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>312964.8</v>
+        <v>236226</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3406,7 +2966,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>630000</v>
+        <v>344752.5</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,7 +2974,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>504948</v>
+        <v>298848</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,7 +2982,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>175245.6</v>
+        <v>179496</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,7 +2990,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>360000</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3438,7 +2998,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>336000</v>
+        <v>188369.4</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,7 +3006,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>272727</v>
+        <v>145848.144</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,7 +3014,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>279850.2</v>
+        <v>161721.6</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,7 +3022,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>204718.8</v>
+        <v>364425</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,7 +3030,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>1146817.44</v>
+        <v>299304.72</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,7 +3038,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>384000</v>
+        <v>404556</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3486,7 +3046,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>365952</v>
+        <v>348852</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,7 +3054,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>509942.4</v>
+        <v>191002.8</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,7 +3062,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>180226.2</v>
+        <v>203002.8</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,7 +3070,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>231514.32</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,7 +3078,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>252074.16</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,7 +3086,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>314130.96</v>
+        <v>252012</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,7 +3094,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>109496.8212</v>
+        <v>337879.2</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,7 +3102,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>70684.5264</v>
+        <v>236967</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,7 +3110,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>113069.9472</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,7 +3118,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>314130.96</v>
+        <v>113069.9472</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,7 +3126,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>2011590</v>
+        <v>436632</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,7 +3134,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>1047551.4</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,7 +3142,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>388860.12</v>
+        <v>150344.2632</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,7 +3150,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>300000</v>
+        <v>422400</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3598,7 +3158,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>173807.478</v>
+        <v>360654</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,7 +3166,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>285012</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,7 +3174,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>155659.4004</v>
+        <v>151402.8</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,7 +3182,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>428832</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,7 +3190,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>556656</v>
+        <v>290400</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,7 +3198,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>150807.4896</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3646,7 +3206,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>972052.2</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,7 +3214,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>233002.8</v>
+        <v>134709.4212</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,7 +3222,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>238913.4</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,7 +3230,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>228874.8</v>
+        <v>429576</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,7 +3238,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>288107.82</v>
+        <v>277992</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,7 +3246,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>259104</v>
+        <v>191002.8</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3694,7 +3254,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>264000</v>
+        <v>402732</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,7 +3262,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>233002.8</v>
+        <v>427200</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3710,7 +3270,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>245002.8</v>
+        <v>627288</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,7 +3278,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>300000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,7 +3286,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>360000</v>
+        <v>384426</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,7 +3294,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>447480</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,7 +3302,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>300000</v>
+        <v>235192.8</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,7 +3310,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>300000</v>
+        <v>284095.2</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,7 +3318,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>111053.9472</v>
+        <v>186754.8</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,7 +3326,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>339000</v>
+        <v>309441.6</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,7 +3334,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>360000</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,7 +3342,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>213399.6</v>
+        <v>264720</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,7 +3350,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>245002.8</v>
+        <v>273780</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,7 +3358,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,7 +3374,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>288545.25</v>
+        <v>317304</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3822,7 +3382,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>364425</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,7 +3390,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>695671.2</v>
+        <v>328152</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3838,7 +3398,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>276276.9</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,7 +3406,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>330000</v>
+        <v>298320</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,7 +3414,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>384000</v>
+        <v>239002.8</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,7 +3422,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>286680</v>
+        <v>455616</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,7 +3430,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>276000</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,7 +3438,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>607200</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,7 +3446,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>280725.6</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,7 +3454,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>288868.8</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3902,7 +3462,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>288000</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,7 +3470,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>299999.7</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,7 +3478,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>300000</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,7 +3486,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>264724.2</v>
+        <v>339000</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3934,7 +3494,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>364425</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,7 +3502,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>173002.8</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,7 +3510,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>444000</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,7 +3518,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>396750</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3966,7 +3526,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>411165</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3974,7 +3534,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>239002.8</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,7 +3542,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>358701.12</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,7 +3550,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>358320</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,7 +3558,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>1061713.8</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,7 +3566,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>372900</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,7 +3574,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>372900</v>
+        <v>222480</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,7 +3582,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>236569.2</v>
+        <v>222480</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,7 +3590,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>236226</v>
+        <v>170602.8</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,7 +3598,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>344752.5</v>
+        <v>328152</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,7 +3606,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>298848</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,7 +3614,7 @@
         <v>256</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>179496</v>
+        <v>188439.6</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4062,7 +3622,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>233002.8</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,7 +3630,7 @@
         <v>258</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>188369.4</v>
+        <v>173002.8</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4078,7 +3638,7 @@
         <v>259</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>145848.144</v>
+        <v>264143.25</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,7 +3646,7 @@
         <v>260</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>161721.6</v>
+        <v>245002.8</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,7 +3654,7 @@
         <v>261</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>364425</v>
+        <v>203002.8</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4102,7 +3662,7 @@
         <v>262</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>299304.72</v>
+        <v>240106.8</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,7 +3670,7 @@
         <v>263</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>404556</v>
+        <v>240106.8</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,7 +3678,7 @@
         <v>264</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>348852</v>
+        <v>372000</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4126,7 +3686,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>191002.8</v>
+        <v>205440</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,7 +3694,7 @@
         <v>266</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>203002.8</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,7 +3702,7 @@
         <v>267</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>158602.8</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4150,7 +3710,7 @@
         <v>268</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>162535.8</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,7 +3718,7 @@
         <v>269</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>252012</v>
+        <v>201600</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,7 +3726,7 @@
         <v>270</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>337879.2</v>
+        <v>270192</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4174,7 +3734,7 @@
         <v>271</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>236967</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,7 +3742,7 @@
         <v>272</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>111053.9472</v>
+        <v>300105</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,7 +3750,7 @@
         <v>273</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>113069.9472</v>
+        <v>437310</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,7 +3758,7 @@
         <v>274</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>436632</v>
+        <v>236662.8</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,7 +3766,7 @@
         <v>275</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>158602.8</v>
+        <v>312109.2</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4214,7 +3774,7 @@
         <v>276</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>150344.2632</v>
+        <v>264092.4</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,7 +3782,7 @@
         <v>277</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>422400</v>
+        <v>160042.8</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4230,7 +3790,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="0" t="n">
-        <v>360654</v>
+        <v>235192.8</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4238,7 +3798,7 @@
         <v>279</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>288000</v>
+        <v>280098</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,7 +3806,7 @@
         <v>280</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>151402.8</v>
+        <v>229402.8</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,7 +3814,7 @@
         <v>281</v>
       </c>
       <c r="B281" s="0" t="n">
-        <v>360000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4262,7 +3822,7 @@
         <v>282</v>
       </c>
       <c r="B282" s="0" t="n">
-        <v>290400</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,7 +3830,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="0" t="n">
-        <v>111053.9472</v>
+        <v>385212</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,7 +3838,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="0" t="n">
-        <v>111053.9472</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,7 +3846,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="0" t="n">
-        <v>134709.4212</v>
+        <v>372000</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4294,7 +3854,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="0" t="n">
-        <v>360000</v>
+        <v>582000</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4302,7 +3862,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="0" t="n">
-        <v>429576</v>
+        <v>308880</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4310,7 +3870,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="0" t="n">
-        <v>277992</v>
+        <v>291060</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4318,7 +3878,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>191002.8</v>
+        <v>346500</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4326,7 +3886,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="0" t="n">
-        <v>402732</v>
+        <v>197002.8</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,7 +3894,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="0" t="n">
-        <v>427200</v>
+        <v>554400</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4342,7 +3902,7 @@
         <v>292</v>
       </c>
       <c r="B292" s="0" t="n">
-        <v>627288</v>
+        <v>359520</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4350,7 +3910,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="0" t="n">
-        <v>336000</v>
+        <v>400020</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4358,7 +3918,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="0" t="n">
-        <v>384426</v>
+        <v>264600</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4366,7 +3926,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="0" t="n">
-        <v>233002.8</v>
+        <v>462000</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,7 +3934,7 @@
         <v>296</v>
       </c>
       <c r="B296" s="0" t="n">
-        <v>235192.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4382,7 +3942,7 @@
         <v>297</v>
       </c>
       <c r="B297" s="0" t="n">
-        <v>284095.2</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4390,7 +3950,7 @@
         <v>298</v>
       </c>
       <c r="B298" s="0" t="n">
-        <v>186754.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,7 +3958,7 @@
         <v>299</v>
       </c>
       <c r="B299" s="0" t="n">
-        <v>309441.6</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,7 +3966,7 @@
         <v>300</v>
       </c>
       <c r="B300" s="0" t="n">
-        <v>221002.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,7 +3974,7 @@
         <v>301</v>
       </c>
       <c r="B301" s="0" t="n">
-        <v>264720</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4422,7 +3982,7 @@
         <v>302</v>
       </c>
       <c r="B302" s="0" t="n">
-        <v>273780</v>
+        <v>339000</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,7 +3990,7 @@
         <v>303</v>
       </c>
       <c r="B303" s="0" t="n">
-        <v>300000</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,7 +3998,7 @@
         <v>304</v>
       </c>
       <c r="B304" s="0" t="n">
-        <v>300000</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,7 +4006,7 @@
         <v>305</v>
       </c>
       <c r="B305" s="0" t="n">
-        <v>317304</v>
+        <v>247200</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,7 +4014,7 @@
         <v>306</v>
       </c>
       <c r="B306" s="0" t="n">
-        <v>221002.8</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,7 +4022,7 @@
         <v>307</v>
       </c>
       <c r="B307" s="0" t="n">
-        <v>328152</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,7 +4030,7 @@
         <v>308</v>
       </c>
       <c r="B308" s="0" t="n">
-        <v>372900</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,7 +4038,7 @@
         <v>309</v>
       </c>
       <c r="B309" s="0" t="n">
-        <v>298320</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,7 +4046,7 @@
         <v>310</v>
       </c>
       <c r="B310" s="0" t="n">
-        <v>239002.8</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4494,7 +4054,7 @@
         <v>311</v>
       </c>
       <c r="B311" s="0" t="n">
-        <v>455616</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,7 +4062,7 @@
         <v>312</v>
       </c>
       <c r="B312" s="0" t="n">
-        <v>372900</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4510,7 +4070,7 @@
         <v>313</v>
       </c>
       <c r="B313" s="0" t="n">
-        <v>264000</v>
+        <v>829143</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4078,7 @@
         <v>314</v>
       </c>
       <c r="B314" s="0" t="n">
-        <v>321000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,7 +4086,7 @@
         <v>315</v>
       </c>
       <c r="B315" s="0" t="n">
-        <v>321000</v>
+        <v>406800</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,7 +4094,7 @@
         <v>316</v>
       </c>
       <c r="B316" s="0" t="n">
-        <v>321000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +4102,7 @@
         <v>317</v>
       </c>
       <c r="B317" s="0" t="n">
-        <v>420000</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,7 +4110,7 @@
         <v>318</v>
       </c>
       <c r="B318" s="0" t="n">
-        <v>321000</v>
+        <v>161482.8</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4558,7 +4118,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="0" t="n">
-        <v>339000</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,7 +4126,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="0" t="n">
-        <v>720000</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,7 +4134,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="0" t="n">
-        <v>321000</v>
+        <v>438000</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4582,7 +4142,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="0" t="n">
-        <v>321000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,7 +4150,7 @@
         <v>323</v>
       </c>
       <c r="B323" s="0" t="n">
-        <v>321000</v>
+        <v>142595.5788</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,7 +4158,7 @@
         <v>324</v>
       </c>
       <c r="B324" s="0" t="n">
-        <v>321000</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,7 +4166,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="0" t="n">
-        <v>321000</v>
+        <v>265200</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,7 +4174,7 @@
         <v>326</v>
       </c>
       <c r="B326" s="0" t="n">
-        <v>321000</v>
+        <v>145187.5788</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,7 +4182,7 @@
         <v>327</v>
       </c>
       <c r="B327" s="0" t="n">
-        <v>309000</v>
+        <v>145187.5788</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,7 +4190,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="0" t="n">
-        <v>309000</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,7 +4198,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="0" t="n">
-        <v>309000</v>
+        <v>512388</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,7 +4206,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="0" t="n">
-        <v>222480</v>
+        <v>215950.8</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,7 +4214,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="0" t="n">
-        <v>222480</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,7 +4222,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="0" t="n">
-        <v>170602.8</v>
+        <v>233345.7</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,7 +4230,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="0" t="n">
-        <v>328152</v>
+        <v>300434.7</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,7 +4238,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="0" t="n">
-        <v>162535.8</v>
+        <v>936828</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4686,7 +4246,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="0" t="n">
-        <v>188439.6</v>
+        <v>111379.1052</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,7 +4254,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="0" t="n">
-        <v>162535.8</v>
+        <v>118939.1052</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,7 +4262,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="0" t="n">
-        <v>173002.8</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,7 +4270,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="0" t="n">
-        <v>264143.25</v>
+        <v>161531.5884</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4718,7 +4278,7 @@
         <v>339</v>
       </c>
       <c r="B339" s="0" t="n">
-        <v>245002.8</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,7 +4286,7 @@
         <v>340</v>
       </c>
       <c r="B340" s="0" t="n">
-        <v>203002.8</v>
+        <v>229363.2</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,7 +4294,7 @@
         <v>341</v>
       </c>
       <c r="B341" s="0" t="n">
-        <v>240106.8</v>
+        <v>477888</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4742,7 +4302,7 @@
         <v>342</v>
       </c>
       <c r="B342" s="0" t="n">
-        <v>240106.8</v>
+        <v>179002.8</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,7 +4310,7 @@
         <v>343</v>
       </c>
       <c r="B343" s="0" t="n">
-        <v>372000</v>
+        <v>194002.8</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4758,7 +4318,7 @@
         <v>344</v>
       </c>
       <c r="B344" s="0" t="n">
-        <v>205440</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4766,7 +4326,7 @@
         <v>345</v>
       </c>
       <c r="B345" s="0" t="n">
-        <v>151200</v>
+        <v>358253.28</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4774,7 +4334,7 @@
         <v>346</v>
       </c>
       <c r="B346" s="0" t="n">
-        <v>151200</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4782,7 +4342,7 @@
         <v>347</v>
       </c>
       <c r="B347" s="0" t="n">
-        <v>151200</v>
+        <v>230602.8</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,7 +4350,7 @@
         <v>348</v>
       </c>
       <c r="B348" s="0" t="n">
-        <v>201600</v>
+        <v>285714</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4798,7 +4358,7 @@
         <v>349</v>
       </c>
       <c r="B349" s="0" t="n">
-        <v>270192</v>
+        <v>285714</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,7 +4366,7 @@
         <v>350</v>
       </c>
       <c r="B350" s="0" t="n">
-        <v>660000</v>
+        <v>149002.8</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,7 +4374,7 @@
         <v>351</v>
       </c>
       <c r="B351" s="0" t="n">
-        <v>300105</v>
+        <v>179002.8</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,7 +4382,7 @@
         <v>352</v>
       </c>
       <c r="B352" s="0" t="n">
-        <v>437310</v>
+        <v>236050.8</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4830,7 +4390,7 @@
         <v>353</v>
       </c>
       <c r="B353" s="0" t="n">
-        <v>236662.8</v>
+        <v>403200</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4838,7 +4398,7 @@
         <v>354</v>
       </c>
       <c r="B354" s="0" t="n">
-        <v>312109.2</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4846,7 +4406,7 @@
         <v>355</v>
       </c>
       <c r="B355" s="0" t="n">
-        <v>264092.4</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,7 +4414,7 @@
         <v>356</v>
       </c>
       <c r="B356" s="0" t="n">
-        <v>160042.8</v>
+        <v>227002.8</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4862,7 +4422,7 @@
         <v>357</v>
       </c>
       <c r="B357" s="0" t="n">
-        <v>235192.8</v>
+        <v>254100</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,7 +4430,7 @@
         <v>358</v>
       </c>
       <c r="B358" s="0" t="n">
-        <v>280098</v>
+        <v>145223.6316</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4878,7 +4438,7 @@
         <v>359</v>
       </c>
       <c r="B359" s="0" t="n">
-        <v>229402.8</v>
+        <v>110596.842</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,7 +4446,7 @@
         <v>360</v>
       </c>
       <c r="B360" s="0" t="n">
-        <v>264000</v>
+        <v>276600</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4894,7 +4454,7 @@
         <v>361</v>
       </c>
       <c r="B361" s="0" t="n">
-        <v>158602.8</v>
+        <v>300101.76</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4902,7 +4462,7 @@
         <v>362</v>
       </c>
       <c r="B362" s="0" t="n">
-        <v>385212</v>
+        <v>239722.8</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,7 +4470,7 @@
         <v>363</v>
       </c>
       <c r="B363" s="0" t="n">
-        <v>288000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4918,7 +4478,7 @@
         <v>364</v>
       </c>
       <c r="B364" s="0" t="n">
-        <v>372000</v>
+        <v>239722.8</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,7 +4486,7 @@
         <v>365</v>
       </c>
       <c r="B365" s="0" t="n">
-        <v>582000</v>
+        <v>254280</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4934,7 +4494,7 @@
         <v>366</v>
       </c>
       <c r="B366" s="0" t="n">
-        <v>308880</v>
+        <v>327320.4</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4942,7 +4502,7 @@
         <v>367</v>
       </c>
       <c r="B367" s="0" t="n">
-        <v>291060</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4950,7 +4510,7 @@
         <v>368</v>
       </c>
       <c r="B368" s="0" t="n">
-        <v>346500</v>
+        <v>180807</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4958,7 +4518,7 @@
         <v>369</v>
       </c>
       <c r="B369" s="0" t="n">
-        <v>197002.8</v>
+        <v>191002.8</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4966,7 +4526,7 @@
         <v>370</v>
       </c>
       <c r="B370" s="0" t="n">
-        <v>554400</v>
+        <v>209002.8</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,7 +4534,7 @@
         <v>371</v>
       </c>
       <c r="B371" s="0" t="n">
-        <v>359520</v>
+        <v>384816</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4982,7 +4542,7 @@
         <v>372</v>
       </c>
       <c r="B372" s="0" t="n">
-        <v>400020</v>
+        <v>201000</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4990,7 +4550,7 @@
         <v>373</v>
       </c>
       <c r="B373" s="0" t="n">
-        <v>264600</v>
+        <v>254280</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4998,7 +4558,7 @@
         <v>374</v>
       </c>
       <c r="B374" s="0" t="n">
-        <v>462000</v>
+        <v>348300</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5014,7 +4574,7 @@
         <v>376</v>
       </c>
       <c r="B376" s="0" t="n">
-        <v>264000</v>
+        <v>303243.6</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,7 +4582,7 @@
         <v>377</v>
       </c>
       <c r="B377" s="0" t="n">
-        <v>264000</v>
+        <v>348000</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5030,7 +4590,7 @@
         <v>378</v>
       </c>
       <c r="B378" s="0" t="n">
-        <v>264000</v>
+        <v>253836</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,7 +4598,7 @@
         <v>379</v>
       </c>
       <c r="B379" s="0" t="n">
-        <v>264000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5046,7 +4606,7 @@
         <v>380</v>
       </c>
       <c r="B380" s="0" t="n">
-        <v>264000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,7 +4614,7 @@
         <v>381</v>
       </c>
       <c r="B381" s="0" t="n">
-        <v>339000</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,7 +4622,7 @@
         <v>382</v>
       </c>
       <c r="B382" s="0" t="n">
-        <v>280800</v>
+        <v>817714.8</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5070,7 +4630,7 @@
         <v>383</v>
       </c>
       <c r="B383" s="0" t="n">
-        <v>280800</v>
+        <v>443520</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5078,7 +4638,7 @@
         <v>384</v>
       </c>
       <c r="B384" s="0" t="n">
-        <v>247200</v>
+        <v>166572</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5086,7 +4646,7 @@
         <v>385</v>
       </c>
       <c r="B385" s="0" t="n">
-        <v>256800</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5094,7 +4654,7 @@
         <v>386</v>
       </c>
       <c r="B386" s="0" t="n">
-        <v>256800</v>
+        <v>175944</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5102,7 +4662,7 @@
         <v>387</v>
       </c>
       <c r="B387" s="0" t="n">
-        <v>256800</v>
+        <v>198838.8</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5110,7 +4670,7 @@
         <v>388</v>
       </c>
       <c r="B388" s="0" t="n">
-        <v>256800</v>
+        <v>225286.8</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5118,7 +4678,7 @@
         <v>389</v>
       </c>
       <c r="B389" s="0" t="n">
-        <v>256800</v>
+        <v>237802.8</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5126,7 +4686,7 @@
         <v>390</v>
       </c>
       <c r="B390" s="0" t="n">
-        <v>375000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,7 +4694,7 @@
         <v>391</v>
       </c>
       <c r="B391" s="0" t="n">
-        <v>264000</v>
+        <v>252876</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,7 +4702,7 @@
         <v>392</v>
       </c>
       <c r="B392" s="0" t="n">
-        <v>829143</v>
+        <v>342000</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,7 +4710,7 @@
         <v>393</v>
       </c>
       <c r="B393" s="0" t="n">
-        <v>264000</v>
+        <v>600915</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5158,7 +4718,7 @@
         <v>394</v>
       </c>
       <c r="B394" s="0" t="n">
-        <v>406800</v>
+        <v>201802.8</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5166,7 +4726,7 @@
         <v>395</v>
       </c>
       <c r="B395" s="0" t="n">
-        <v>252000</v>
+        <v>167700</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5174,7 +4734,7 @@
         <v>396</v>
       </c>
       <c r="B396" s="0" t="n">
-        <v>280800</v>
+        <v>361848</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5182,7 +4742,7 @@
         <v>397</v>
       </c>
       <c r="B397" s="0" t="n">
-        <v>161482.8</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,7 +4750,7 @@
         <v>398</v>
       </c>
       <c r="B398" s="0" t="n">
-        <v>280800</v>
+        <v>215983.92</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,7 +4758,7 @@
         <v>399</v>
       </c>
       <c r="B399" s="0" t="n">
-        <v>315000</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5206,7 +4766,7 @@
         <v>400</v>
       </c>
       <c r="B400" s="0" t="n">
-        <v>438000</v>
+        <v>372600</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5214,7 +4774,7 @@
         <v>401</v>
       </c>
       <c r="B401" s="0" t="n">
-        <v>264000</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5222,7 +4782,7 @@
         <v>402</v>
       </c>
       <c r="B402" s="0" t="n">
-        <v>142595.5788</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5230,7 +4790,7 @@
         <v>403</v>
       </c>
       <c r="B403" s="0" t="n">
-        <v>158602.8</v>
+        <v>191302.8</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5238,7 +4798,7 @@
         <v>404</v>
       </c>
       <c r="B404" s="0" t="n">
-        <v>265200</v>
+        <v>209002.8</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,7 +4806,7 @@
         <v>405</v>
       </c>
       <c r="B405" s="0" t="n">
-        <v>145187.5788</v>
+        <v>441180</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5254,7 +4814,7 @@
         <v>406</v>
       </c>
       <c r="B406" s="0" t="n">
-        <v>145187.5788</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,7 +4822,7 @@
         <v>407</v>
       </c>
       <c r="B407" s="0" t="n">
-        <v>233002.8</v>
+        <v>708000</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5270,7 +4830,7 @@
         <v>408</v>
       </c>
       <c r="B408" s="0" t="n">
-        <v>512388</v>
+        <v>221278.8</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5278,7 +4838,7 @@
         <v>409</v>
       </c>
       <c r="B409" s="0" t="n">
-        <v>215950.8</v>
+        <v>236002.8</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5286,7 +4846,7 @@
         <v>410</v>
       </c>
       <c r="B410" s="0" t="n">
-        <v>288000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5294,7 +4854,7 @@
         <v>411</v>
       </c>
       <c r="B411" s="0" t="n">
-        <v>233345.7</v>
+        <v>217402.8</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5302,7 +4862,7 @@
         <v>412</v>
       </c>
       <c r="B412" s="0" t="n">
-        <v>300434.7</v>
+        <v>261870</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5310,7 +4870,7 @@
         <v>413</v>
       </c>
       <c r="B413" s="0" t="n">
-        <v>936828</v>
+        <v>267960</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5318,7 +4878,7 @@
         <v>414</v>
       </c>
       <c r="B414" s="0" t="n">
-        <v>111379.1052</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5326,7 +4886,7 @@
         <v>415</v>
       </c>
       <c r="B415" s="0" t="n">
-        <v>118939.1052</v>
+        <v>253572</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,7 +4894,7 @@
         <v>416</v>
       </c>
       <c r="B416" s="0" t="n">
-        <v>360000</v>
+        <v>480048</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5342,7 +4902,7 @@
         <v>417</v>
       </c>
       <c r="B417" s="0" t="n">
-        <v>161531.5884</v>
+        <v>266400</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5350,7 +4910,7 @@
         <v>418</v>
       </c>
       <c r="B418" s="0" t="n">
-        <v>300000</v>
+        <v>197002.8</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5358,7 +4918,7 @@
         <v>419</v>
       </c>
       <c r="B419" s="0" t="n">
-        <v>229363.2</v>
+        <v>1800183.798</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5366,7 +4926,7 @@
         <v>420</v>
       </c>
       <c r="B420" s="0" t="n">
-        <v>477888</v>
+        <v>203602.8</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5374,7 +4934,7 @@
         <v>421</v>
       </c>
       <c r="B421" s="0" t="n">
-        <v>179002.8</v>
+        <v>322500</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5382,7 +4942,7 @@
         <v>422</v>
       </c>
       <c r="B422" s="0" t="n">
-        <v>194002.8</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5390,7 +4950,7 @@
         <v>423</v>
       </c>
       <c r="B423" s="0" t="n">
-        <v>264000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5398,7 +4958,7 @@
         <v>424</v>
       </c>
       <c r="B424" s="0" t="n">
-        <v>358253.28</v>
+        <v>424272</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5406,7 +4966,7 @@
         <v>425</v>
       </c>
       <c r="B425" s="0" t="n">
-        <v>233002.8</v>
+        <v>243120</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5414,7 +4974,7 @@
         <v>426</v>
       </c>
       <c r="B426" s="0" t="n">
-        <v>230602.8</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5422,7 +4982,7 @@
         <v>427</v>
       </c>
       <c r="B427" s="0" t="n">
-        <v>285714</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5430,7 +4990,7 @@
         <v>428</v>
       </c>
       <c r="B428" s="0" t="n">
-        <v>285714</v>
+        <v>267300</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5438,7 +4998,7 @@
         <v>429</v>
       </c>
       <c r="B429" s="0" t="n">
-        <v>149002.8</v>
+        <v>268284</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5446,7 +5006,7 @@
         <v>430</v>
       </c>
       <c r="B430" s="0" t="n">
-        <v>179002.8</v>
+        <v>300696</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5454,7 +5014,7 @@
         <v>431</v>
       </c>
       <c r="B431" s="0" t="n">
-        <v>236050.8</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5462,7 +5022,7 @@
         <v>432</v>
       </c>
       <c r="B432" s="0" t="n">
-        <v>403200</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5470,7 +5030,7 @@
         <v>433</v>
       </c>
       <c r="B433" s="0" t="n">
-        <v>360000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5478,7 +5038,7 @@
         <v>434</v>
       </c>
       <c r="B434" s="0" t="n">
-        <v>288000</v>
+        <v>161002.8</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5486,7 +5046,7 @@
         <v>435</v>
       </c>
       <c r="B435" s="0" t="n">
-        <v>227002.8</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5494,7 +5054,7 @@
         <v>436</v>
       </c>
       <c r="B436" s="0" t="n">
-        <v>254100</v>
+        <v>158656.5672</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5502,7 +5062,7 @@
         <v>437</v>
       </c>
       <c r="B437" s="0" t="n">
-        <v>145223.6316</v>
+        <v>158656.5672</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5510,7 +5070,7 @@
         <v>438</v>
       </c>
       <c r="B438" s="0" t="n">
-        <v>110596.842</v>
+        <v>298944</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5518,7 +5078,7 @@
         <v>439</v>
       </c>
       <c r="B439" s="0" t="n">
-        <v>276600</v>
+        <v>372432</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5526,7 +5086,7 @@
         <v>440</v>
       </c>
       <c r="B440" s="0" t="n">
-        <v>300101.76</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5534,7 +5094,7 @@
         <v>441</v>
       </c>
       <c r="B441" s="0" t="n">
-        <v>239722.8</v>
+        <v>481440</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5542,7 +5102,7 @@
         <v>442</v>
       </c>
       <c r="B442" s="0" t="n">
-        <v>264000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5550,7 +5110,7 @@
         <v>443</v>
       </c>
       <c r="B443" s="0" t="n">
-        <v>239722.8</v>
+        <v>867300</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5558,7 +5118,7 @@
         <v>444</v>
       </c>
       <c r="B444" s="0" t="n">
-        <v>254280</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5566,7 +5126,7 @@
         <v>445</v>
       </c>
       <c r="B445" s="0" t="n">
-        <v>327320.4</v>
+        <v>185002.8</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5574,7 +5134,7 @@
         <v>446</v>
       </c>
       <c r="B446" s="0" t="n">
-        <v>300000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5582,7 +5142,7 @@
         <v>447</v>
       </c>
       <c r="B447" s="0" t="n">
-        <v>180807</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5590,7 +5150,7 @@
         <v>448</v>
       </c>
       <c r="B448" s="0" t="n">
-        <v>191002.8</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,7 +5158,7 @@
         <v>449</v>
       </c>
       <c r="B449" s="0" t="n">
-        <v>209002.8</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5606,7 +5166,7 @@
         <v>450</v>
       </c>
       <c r="B450" s="0" t="n">
-        <v>384816</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,7 +5174,7 @@
         <v>451</v>
       </c>
       <c r="B451" s="0" t="n">
-        <v>201000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5622,7 +5182,7 @@
         <v>452</v>
       </c>
       <c r="B452" s="0" t="n">
-        <v>254280</v>
+        <v>158604</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,7 +5190,7 @@
         <v>453</v>
       </c>
       <c r="B453" s="0" t="n">
-        <v>348300</v>
+        <v>238944</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5638,7 +5198,7 @@
         <v>454</v>
       </c>
       <c r="B454" s="0" t="n">
-        <v>264000</v>
+        <v>244200</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5646,7 +5206,7 @@
         <v>455</v>
       </c>
       <c r="B455" s="0" t="n">
-        <v>303243.6</v>
+        <v>177706.8</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,7 +5214,7 @@
         <v>456</v>
       </c>
       <c r="B456" s="0" t="n">
-        <v>348000</v>
+        <v>514944</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5662,7 +5222,7 @@
         <v>457</v>
       </c>
       <c r="B457" s="0" t="n">
-        <v>253836</v>
+        <v>252012</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5670,7 +5230,7 @@
         <v>458</v>
       </c>
       <c r="B458" s="0" t="n">
-        <v>360000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5678,7 +5238,7 @@
         <v>459</v>
       </c>
       <c r="B459" s="0" t="n">
-        <v>252000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,7 +5246,7 @@
         <v>460</v>
       </c>
       <c r="B460" s="0" t="n">
-        <v>221002.8</v>
+        <v>173688</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,7 +5254,7 @@
         <v>461</v>
       </c>
       <c r="B461" s="0" t="n">
-        <v>817714.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5702,7 +5262,7 @@
         <v>462</v>
       </c>
       <c r="B462" s="0" t="n">
-        <v>443520</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,7 +5270,7 @@
         <v>463</v>
       </c>
       <c r="B463" s="0" t="n">
-        <v>166572</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,7 +5278,7 @@
         <v>464</v>
       </c>
       <c r="B464" s="0" t="n">
-        <v>264000</v>
+        <v>336120</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5726,7 +5286,7 @@
         <v>465</v>
       </c>
       <c r="B465" s="0" t="n">
-        <v>175944</v>
+        <v>265884</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5734,7 +5294,7 @@
         <v>466</v>
       </c>
       <c r="B466" s="0" t="n">
-        <v>198838.8</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,7 +5302,7 @@
         <v>467</v>
       </c>
       <c r="B467" s="0" t="n">
-        <v>225286.8</v>
+        <v>241812</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5750,7 +5310,7 @@
         <v>468</v>
       </c>
       <c r="B468" s="0" t="n">
-        <v>237802.8</v>
+        <v>227928</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5758,7 +5318,7 @@
         <v>469</v>
       </c>
       <c r="B469" s="0" t="n">
-        <v>324000</v>
+        <v>169212</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5766,7 +5326,7 @@
         <v>470</v>
       </c>
       <c r="B470" s="0" t="n">
-        <v>252876</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5774,7 +5334,7 @@
         <v>471</v>
       </c>
       <c r="B471" s="0" t="n">
-        <v>342000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5782,638 +5342,6 @@
         <v>472</v>
       </c>
       <c r="B472" s="0" t="n">
-        <v>600915</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B473" s="0" t="n">
-        <v>201802.8</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B474" s="0" t="n">
-        <v>167700</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B475" s="0" t="n">
-        <v>361848</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B476" s="0" t="n">
-        <v>312000</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B477" s="0" t="n">
-        <v>215983.92</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B478" s="0" t="n">
-        <v>221002.8</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B479" s="0" t="n">
-        <v>372600</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B480" s="0" t="n">
-        <v>276000</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B481" s="0" t="n">
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B482" s="0" t="n">
-        <v>191302.8</v>
-      </c>
-    </row>
-    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B483" s="0" t="n">
-        <v>209002.8</v>
-      </c>
-    </row>
-    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B484" s="0" t="n">
-        <v>441180</v>
-      </c>
-    </row>
-    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B485" s="0" t="n">
-        <v>480000</v>
-      </c>
-    </row>
-    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B486" s="0" t="n">
-        <v>708000</v>
-      </c>
-    </row>
-    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B487" s="0" t="n">
-        <v>221278.8</v>
-      </c>
-    </row>
-    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B488" s="0" t="n">
-        <v>236002.8</v>
-      </c>
-    </row>
-    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B489" s="0" t="n">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B490" s="0" t="n">
-        <v>217402.8</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B491" s="0" t="n">
-        <v>261870</v>
-      </c>
-    </row>
-    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B492" s="0" t="n">
-        <v>267960</v>
-      </c>
-    </row>
-    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B493" s="0" t="n">
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B494" s="0" t="n">
-        <v>253572</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B495" s="0" t="n">
-        <v>480048</v>
-      </c>
-    </row>
-    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B496" s="0" t="n">
-        <v>266400</v>
-      </c>
-    </row>
-    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B497" s="0" t="n">
-        <v>197002.8</v>
-      </c>
-    </row>
-    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B498" s="0" t="n">
-        <v>1800183.798</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B499" s="0" t="n">
-        <v>203602.8</v>
-      </c>
-    </row>
-    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B500" s="0" t="n">
-        <v>322500</v>
-      </c>
-    </row>
-    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B501" s="0" t="n">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B502" s="0" t="n">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B503" s="0" t="n">
-        <v>424272</v>
-      </c>
-    </row>
-    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B504" s="0" t="n">
-        <v>243120</v>
-      </c>
-    </row>
-    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B505" s="0" t="n">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B506" s="0" t="n">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B507" s="0" t="n">
-        <v>267300</v>
-      </c>
-    </row>
-    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B508" s="0" t="n">
-        <v>268284</v>
-      </c>
-    </row>
-    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B509" s="0" t="n">
-        <v>300696</v>
-      </c>
-    </row>
-    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B510" s="0" t="n">
-        <v>96000</v>
-      </c>
-    </row>
-    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B511" s="0" t="n">
-        <v>86400</v>
-      </c>
-    </row>
-    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B512" s="0" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B513" s="0" t="n">
-        <v>161002.8</v>
-      </c>
-    </row>
-    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B514" s="0" t="n">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B515" s="0" t="n">
-        <v>158656.5672</v>
-      </c>
-    </row>
-    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B516" s="0" t="n">
-        <v>158656.5672</v>
-      </c>
-    </row>
-    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B517" s="0" t="n">
-        <v>298944</v>
-      </c>
-    </row>
-    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B518" s="0" t="n">
-        <v>372432</v>
-      </c>
-    </row>
-    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B519" s="0" t="n">
-        <v>252000</v>
-      </c>
-    </row>
-    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B520" s="0" t="n">
-        <v>481440</v>
-      </c>
-    </row>
-    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B521" s="0" t="n">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B522" s="0" t="n">
-        <v>867300</v>
-      </c>
-    </row>
-    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B523" s="0" t="n">
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B524" s="0" t="n">
-        <v>185002.8</v>
-      </c>
-    </row>
-    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B525" s="0" t="n">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B526" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B527" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B528" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B529" s="0" t="n">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B530" s="0" t="n">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B531" s="0" t="n">
-        <v>158604</v>
-      </c>
-    </row>
-    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B532" s="0" t="n">
-        <v>238944</v>
-      </c>
-    </row>
-    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B533" s="0" t="n">
-        <v>244200</v>
-      </c>
-    </row>
-    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B534" s="0" t="n">
-        <v>177706.8</v>
-      </c>
-    </row>
-    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B535" s="0" t="n">
-        <v>514944</v>
-      </c>
-    </row>
-    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B536" s="0" t="n">
-        <v>252012</v>
-      </c>
-    </row>
-    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B537" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B538" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B539" s="0" t="n">
-        <v>173688</v>
-      </c>
-    </row>
-    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B540" s="0" t="n">
-        <v>264000</v>
-      </c>
-    </row>
-    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B541" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B542" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B543" s="0" t="n">
-        <v>336120</v>
-      </c>
-    </row>
-    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B544" s="0" t="n">
-        <v>265884</v>
-      </c>
-    </row>
-    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B545" s="0" t="n">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B546" s="0" t="n">
-        <v>241812</v>
-      </c>
-    </row>
-    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="B547" s="0" t="n">
-        <v>227928</v>
-      </c>
-    </row>
-    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B548" s="0" t="n">
-        <v>169212</v>
-      </c>
-    </row>
-    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B549" s="0" t="n">
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B550" s="0" t="n">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B551" s="0" t="n">
         <v>336000</v>
       </c>
     </row>

--- a/contract_update.xlsx
+++ b/contract_update.xlsx
@@ -20,225 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
   <si>
     <t xml:space="preserve">barcode</t>
   </si>
   <si>
     <t xml:space="preserve">base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0481</t>
   </si>
   <si>
     <t xml:space="preserve">0483</t>
@@ -1558,10 +1345,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B472"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1582,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>288000</v>
+        <v>739200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>562320</v>
+        <v>766072.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,7 +1385,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>846088.32</v>
+        <v>308880</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>436632</v>
+        <v>209390.4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1614,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>514080</v>
+        <v>176449.44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>233002.8</v>
+        <v>174118.8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>197002.8</v>
+        <v>155139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,7 +1425,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>491832</v>
+        <v>157958.76</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>224662.8</v>
+        <v>135366.4344</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>339000</v>
+        <v>141516.4344</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,7 +1449,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>279729.45</v>
+        <v>193102.8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,7 +1457,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>143581.7472</v>
+        <v>480004.7064</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,7 +1465,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>130935.2316</v>
+        <v>107847.7896</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>130935.2316</v>
+        <v>99602.6316</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,7 +1481,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>298320</v>
+        <v>1260000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,7 +1489,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>161946.12</v>
+        <v>107847.7896</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1710,7 +1497,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>161946.12</v>
+        <v>430702.8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,7 +1505,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>161946.12</v>
+        <v>356892</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,7 +1513,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>181826.76</v>
+        <v>335400</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,7 +1521,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>161946.12</v>
+        <v>528000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,7 +1529,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>161946.12</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,7 +1537,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>161946.12</v>
+        <v>236662.8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,7 +1545,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>370811.76</v>
+        <v>312964.8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,7 +1553,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>132584.2632</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,7 +1561,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>98612.8128</v>
+        <v>504948</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,7 +1569,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>218878.32</v>
+        <v>175245.6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,7 +1577,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>200808.84</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,7 +1585,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>408000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,7 +1593,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>136707.342</v>
+        <v>272727</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,7 +1601,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>141975.9156</v>
+        <v>279850.2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,7 +1609,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>285012</v>
+        <v>204718.8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,7 +1617,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>289939.92</v>
+        <v>1146817.44</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,7 +1625,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>141975.9156</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,7 +1633,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>236947.8</v>
+        <v>365952</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1641,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>471600</v>
+        <v>509942.4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +1649,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>396000</v>
+        <v>180226.2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,7 +1657,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>339056.94</v>
+        <v>231514.32</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,7 +1665,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>465653.76</v>
+        <v>252074.16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,7 +1673,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>285012</v>
+        <v>314130.96</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,7 +1681,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>221012.4</v>
+        <v>109496.8212</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,7 +1689,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>136707.342</v>
+        <v>70684.5264</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,7 +1697,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>188506.6896</v>
+        <v>113069.9472</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,7 +1705,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>126558.5328</v>
+        <v>314130.96</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1713,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>144952.5</v>
+        <v>2011590</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,7 +1721,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>137826.4344</v>
+        <v>1047551.4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,7 +1729,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>124300.6128</v>
+        <v>388860.12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,7 +1737,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>131617.752</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,7 +1745,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>129269.112</v>
+        <v>173807.478</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +1753,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>145105.4292</v>
+        <v>285012</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,7 +1761,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>151623.9456</v>
+        <v>155659.4004</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,7 +1769,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>206842.8</v>
+        <v>428832</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,7 +1777,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>135366.4344</v>
+        <v>556656</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,7 +1785,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>149113.5096</v>
+        <v>150807.4896</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,7 +1793,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>161342.4</v>
+        <v>972052.2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,7 +1801,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>229667.76</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,7 +1809,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>170608.8</v>
+        <v>238913.4</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2030,7 +1817,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>280098</v>
+        <v>228874.8</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,7 +1825,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>175245.6</v>
+        <v>288107.82</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,7 +1833,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>190124.4</v>
+        <v>259104</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,7 +1841,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>175245.6</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,7 +1849,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>262828.8</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,7 +1857,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>252720</v>
+        <v>245002.8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,7 +1865,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>318000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2086,7 +1873,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>230602.8</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,7 +1881,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>358662</v>
+        <v>447480</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,7 +1889,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>355285.56</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2110,7 +1897,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,7 +1905,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>941383.8</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,7 +1913,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>337101.6</v>
+        <v>339000</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,7 +1921,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>91357.4736</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,7 +1929,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>258000</v>
+        <v>213399.6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,7 +1937,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>739200</v>
+        <v>245002.8</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,7 +1945,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>766072.8</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,7 +1953,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>308880</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,7 +1961,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>209390.4</v>
+        <v>288545.25</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,7 +1969,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>176449.44</v>
+        <v>364425</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,7 +1977,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>174118.8</v>
+        <v>695671.2</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,7 +1985,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>155139</v>
+        <v>276276.9</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2206,7 +1993,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>157958.76</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,7 +2001,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>135366.4344</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2222,7 +2009,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>141516.4344</v>
+        <v>286680</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2230,7 +2017,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>193102.8</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,7 +2025,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>480004.7064</v>
+        <v>607200</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,7 +2033,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>107847.7896</v>
+        <v>280725.6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,7 +2041,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>99602.6316</v>
+        <v>288868.8</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,7 +2049,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>1260000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2270,7 +2057,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>107847.7896</v>
+        <v>299999.7</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,7 +2065,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>430702.8</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,7 +2073,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>356892</v>
+        <v>264724.2</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,7 +2081,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>335400</v>
+        <v>364425</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,7 +2089,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>528000</v>
+        <v>173002.8</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,7 +2097,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>480000</v>
+        <v>444000</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,7 +2105,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>236662.8</v>
+        <v>396750</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,7 +2113,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>312964.8</v>
+        <v>411165</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,7 +2121,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>630000</v>
+        <v>239002.8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,7 +2129,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>504948</v>
+        <v>358701.12</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,7 +2137,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>175245.6</v>
+        <v>358320</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,7 +2145,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>360000</v>
+        <v>1061713.8</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,7 +2153,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>336000</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,7 +2161,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>272727</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,7 +2169,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>279850.2</v>
+        <v>236569.2</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,7 +2177,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>204718.8</v>
+        <v>236226</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,7 +2185,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>1146817.44</v>
+        <v>344752.5</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,7 +2193,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>384000</v>
+        <v>298848</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,7 +2201,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>365952</v>
+        <v>179496</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,7 +2209,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>509942.4</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,7 +2217,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>180226.2</v>
+        <v>188369.4</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,7 +2225,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>231514.32</v>
+        <v>145848.144</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,7 +2233,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>252074.16</v>
+        <v>161721.6</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,7 +2241,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>314130.96</v>
+        <v>364425</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,7 +2249,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>109496.8212</v>
+        <v>299304.72</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,7 +2257,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>70684.5264</v>
+        <v>404556</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,7 +2265,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>113069.9472</v>
+        <v>348852</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,7 +2273,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>314130.96</v>
+        <v>191002.8</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,7 +2281,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>2011590</v>
+        <v>203002.8</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,7 +2289,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>1047551.4</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,7 +2297,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>388860.12</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,7 +2305,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>300000</v>
+        <v>252012</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,7 +2313,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>173807.478</v>
+        <v>337879.2</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2534,7 +2321,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>285012</v>
+        <v>236967</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,7 +2329,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>155659.4004</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,7 +2337,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>428832</v>
+        <v>113069.9472</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2558,7 +2345,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>556656</v>
+        <v>436632</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,7 +2353,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>150807.4896</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,7 +2361,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>972052.2</v>
+        <v>150344.2632</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,7 +2369,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>233002.8</v>
+        <v>422400</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2590,7 +2377,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>238913.4</v>
+        <v>360654</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,7 +2385,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>228874.8</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,7 +2393,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>288107.82</v>
+        <v>151402.8</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,7 +2401,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>259104</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,7 +2409,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>264000</v>
+        <v>290400</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,7 +2417,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>233002.8</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,7 +2425,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>245002.8</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,7 +2433,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>300000</v>
+        <v>134709.4212</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,7 +2449,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>447480</v>
+        <v>429576</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2670,7 +2457,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>300000</v>
+        <v>277992</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,7 +2465,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>300000</v>
+        <v>191002.8</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,7 +2473,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>111053.9472</v>
+        <v>402732</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,7 +2481,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>339000</v>
+        <v>427200</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,7 +2489,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>360000</v>
+        <v>627288</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,7 +2497,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>213399.6</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,7 +2505,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>245002.8</v>
+        <v>384426</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,7 +2513,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>360000</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,7 +2521,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>300000</v>
+        <v>235192.8</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,7 +2529,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>288545.25</v>
+        <v>284095.2</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,7 +2537,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>364425</v>
+        <v>186754.8</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,7 +2545,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>695671.2</v>
+        <v>309441.6</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,7 +2553,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>276276.9</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,7 +2561,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>330000</v>
+        <v>264720</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,7 +2569,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>384000</v>
+        <v>273780</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,7 +2577,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>286680</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,7 +2585,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>276000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,7 +2593,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>607200</v>
+        <v>317304</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,7 +2601,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>280725.6</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,7 +2609,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>288868.8</v>
+        <v>328152</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,7 +2617,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>288000</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,7 +2625,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>299999.7</v>
+        <v>298320</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,7 +2633,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>300000</v>
+        <v>239002.8</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,7 +2641,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>264724.2</v>
+        <v>455616</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,7 +2649,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>364425</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,7 +2657,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>173002.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,7 +2665,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>444000</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,7 +2673,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>396750</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,7 +2681,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>411165</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,7 +2689,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>239002.8</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,7 +2697,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>358701.12</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,7 +2705,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>358320</v>
+        <v>339000</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,7 +2713,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>1061713.8</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,7 +2721,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>372900</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,7 +2729,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>372900</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,7 +2737,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>236569.2</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,7 +2745,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>236226</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,7 +2753,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>344752.5</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,7 +2761,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>298848</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,7 +2769,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>179496</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,7 +2777,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>233002.8</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,7 +2785,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>188369.4</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,7 +2793,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>145848.144</v>
+        <v>222480</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,7 +2801,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>161721.6</v>
+        <v>222480</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,7 +2809,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>364425</v>
+        <v>170602.8</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,7 +2817,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>299304.72</v>
+        <v>328152</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,7 +2825,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>404556</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,7 +2833,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>348852</v>
+        <v>188439.6</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,7 +2841,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>191002.8</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,7 +2849,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>203002.8</v>
+        <v>173002.8</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,7 +2857,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>158602.8</v>
+        <v>264143.25</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,7 +2865,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>162535.8</v>
+        <v>245002.8</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,7 +2873,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>252012</v>
+        <v>203002.8</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,7 +2881,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>337879.2</v>
+        <v>240106.8</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,7 +2889,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>236967</v>
+        <v>240106.8</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,7 +2897,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>111053.9472</v>
+        <v>372000</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,7 +2905,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>113069.9472</v>
+        <v>205440</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,7 +2913,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>436632</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,7 +2921,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>158602.8</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3142,7 +2929,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>150344.2632</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,7 +2937,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>422400</v>
+        <v>201600</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,7 +2945,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>360654</v>
+        <v>270192</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,7 +2953,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>288000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,7 +2961,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>151402.8</v>
+        <v>300105</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3182,7 +2969,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>360000</v>
+        <v>437310</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,7 +2977,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>290400</v>
+        <v>236662.8</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,7 +2985,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>111053.9472</v>
+        <v>312109.2</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,7 +2993,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>111053.9472</v>
+        <v>264092.4</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,7 +3001,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>134709.4212</v>
+        <v>160042.8</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,7 +3009,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>360000</v>
+        <v>235192.8</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,7 +3017,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>429576</v>
+        <v>280098</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,7 +3025,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>277992</v>
+        <v>229402.8</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,7 +3033,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>191002.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,7 +3041,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>402732</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,7 +3049,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>427200</v>
+        <v>385212</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3270,7 +3057,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>627288</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,7 +3065,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>336000</v>
+        <v>372000</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,7 +3073,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>384426</v>
+        <v>582000</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,7 +3081,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>233002.8</v>
+        <v>308880</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,7 +3089,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>235192.8</v>
+        <v>291060</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,7 +3097,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>284095.2</v>
+        <v>346500</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,7 +3105,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>186754.8</v>
+        <v>197002.8</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,7 +3113,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>309441.6</v>
+        <v>554400</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,7 +3121,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>221002.8</v>
+        <v>359520</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,7 +3129,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>264720</v>
+        <v>400020</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,7 +3137,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>273780</v>
+        <v>264600</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,7 +3145,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>300000</v>
+        <v>462000</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,7 +3153,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>300000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,7 +3161,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>317304</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,7 +3169,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>221002.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,7 +3177,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>328152</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,7 +3185,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>372900</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3406,7 +3193,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>298320</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,7 +3201,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>239002.8</v>
+        <v>339000</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,7 +3209,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>455616</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,7 +3217,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>372900</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3438,7 +3225,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>264000</v>
+        <v>247200</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,7 +3233,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>321000</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,7 +3241,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>321000</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,7 +3249,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>321000</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,7 +3257,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>420000</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,7 +3265,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>321000</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3486,7 +3273,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>339000</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,7 +3281,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>720000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,7 +3289,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>321000</v>
+        <v>829143</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,7 +3297,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>321000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,7 +3305,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>321000</v>
+        <v>406800</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,7 +3313,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>321000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,7 +3321,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>321000</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,7 +3329,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>321000</v>
+        <v>161482.8</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,7 +3337,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>309000</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,7 +3345,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>309000</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,7 +3353,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>309000</v>
+        <v>438000</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,7 +3361,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>222480</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,7 +3369,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>222480</v>
+        <v>142595.5788</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,7 +3377,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>170602.8</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3598,7 +3385,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>328152</v>
+        <v>265200</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,7 +3393,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>162535.8</v>
+        <v>145187.5788</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,7 +3401,7 @@
         <v>256</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>188439.6</v>
+        <v>145187.5788</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,7 +3409,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>162535.8</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,7 +3417,7 @@
         <v>258</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>173002.8</v>
+        <v>512388</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,7 +3425,7 @@
         <v>259</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>264143.25</v>
+        <v>215950.8</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3646,7 +3433,7 @@
         <v>260</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>245002.8</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,7 +3441,7 @@
         <v>261</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>203002.8</v>
+        <v>233345.7</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,7 +3449,7 @@
         <v>262</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>240106.8</v>
+        <v>300434.7</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,7 +3457,7 @@
         <v>263</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>240106.8</v>
+        <v>936828</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,7 +3465,7 @@
         <v>264</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>372000</v>
+        <v>111379.1052</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,7 +3473,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>205440</v>
+        <v>118939.1052</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3694,7 +3481,7 @@
         <v>266</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>151200</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,7 +3489,7 @@
         <v>267</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>151200</v>
+        <v>161531.5884</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3710,7 +3497,7 @@
         <v>268</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>151200</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,7 +3505,7 @@
         <v>269</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>201600</v>
+        <v>229363.2</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,7 +3513,7 @@
         <v>270</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>270192</v>
+        <v>477888</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,7 +3521,7 @@
         <v>271</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>660000</v>
+        <v>179002.8</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,7 +3529,7 @@
         <v>272</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>300105</v>
+        <v>194002.8</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,7 +3537,7 @@
         <v>273</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>437310</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,7 +3545,7 @@
         <v>274</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>236662.8</v>
+        <v>358253.28</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,7 +3553,7 @@
         <v>275</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>312109.2</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,7 +3561,7 @@
         <v>276</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>264092.4</v>
+        <v>230602.8</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,7 +3569,7 @@
         <v>277</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>160042.8</v>
+        <v>285714</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,7 +3577,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="0" t="n">
-        <v>235192.8</v>
+        <v>285714</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,7 +3585,7 @@
         <v>279</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>280098</v>
+        <v>149002.8</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,7 +3593,7 @@
         <v>280</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>229402.8</v>
+        <v>179002.8</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,7 +3601,7 @@
         <v>281</v>
       </c>
       <c r="B281" s="0" t="n">
-        <v>264000</v>
+        <v>236050.8</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3822,7 +3609,7 @@
         <v>282</v>
       </c>
       <c r="B282" s="0" t="n">
-        <v>158602.8</v>
+        <v>403200</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,7 +3617,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="0" t="n">
-        <v>385212</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,7 +3633,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="0" t="n">
-        <v>372000</v>
+        <v>227002.8</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,7 +3641,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="0" t="n">
-        <v>582000</v>
+        <v>254100</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,7 +3649,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="0" t="n">
-        <v>308880</v>
+        <v>145223.6316</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,7 +3657,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="0" t="n">
-        <v>291060</v>
+        <v>110596.842</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,7 +3665,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>346500</v>
+        <v>276600</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,7 +3673,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="0" t="n">
-        <v>197002.8</v>
+        <v>300101.76</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,7 +3681,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="0" t="n">
-        <v>554400</v>
+        <v>239722.8</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3902,7 +3689,7 @@
         <v>292</v>
       </c>
       <c r="B292" s="0" t="n">
-        <v>359520</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,7 +3697,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="0" t="n">
-        <v>400020</v>
+        <v>239722.8</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,7 +3705,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="0" t="n">
-        <v>264600</v>
+        <v>254280</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,7 +3713,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="0" t="n">
-        <v>462000</v>
+        <v>327320.4</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3934,7 +3721,7 @@
         <v>296</v>
       </c>
       <c r="B296" s="0" t="n">
-        <v>264000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,7 +3729,7 @@
         <v>297</v>
       </c>
       <c r="B297" s="0" t="n">
-        <v>264000</v>
+        <v>180807</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,7 +3737,7 @@
         <v>298</v>
       </c>
       <c r="B298" s="0" t="n">
-        <v>264000</v>
+        <v>191002.8</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,7 +3745,7 @@
         <v>299</v>
       </c>
       <c r="B299" s="0" t="n">
-        <v>264000</v>
+        <v>209002.8</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3966,7 +3753,7 @@
         <v>300</v>
       </c>
       <c r="B300" s="0" t="n">
-        <v>264000</v>
+        <v>384816</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3974,7 +3761,7 @@
         <v>301</v>
       </c>
       <c r="B301" s="0" t="n">
-        <v>264000</v>
+        <v>201000</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,7 +3769,7 @@
         <v>302</v>
       </c>
       <c r="B302" s="0" t="n">
-        <v>339000</v>
+        <v>254280</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,7 +3777,7 @@
         <v>303</v>
       </c>
       <c r="B303" s="0" t="n">
-        <v>280800</v>
+        <v>348300</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,7 +3785,7 @@
         <v>304</v>
       </c>
       <c r="B304" s="0" t="n">
-        <v>280800</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,7 +3793,7 @@
         <v>305</v>
       </c>
       <c r="B305" s="0" t="n">
-        <v>247200</v>
+        <v>303243.6</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,7 +3801,7 @@
         <v>306</v>
       </c>
       <c r="B306" s="0" t="n">
-        <v>256800</v>
+        <v>348000</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,7 +3809,7 @@
         <v>307</v>
       </c>
       <c r="B307" s="0" t="n">
-        <v>256800</v>
+        <v>253836</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,7 +3817,7 @@
         <v>308</v>
       </c>
       <c r="B308" s="0" t="n">
-        <v>256800</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,7 +3825,7 @@
         <v>309</v>
       </c>
       <c r="B309" s="0" t="n">
-        <v>256800</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,7 +3833,7 @@
         <v>310</v>
       </c>
       <c r="B310" s="0" t="n">
-        <v>256800</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,7 +3841,7 @@
         <v>311</v>
       </c>
       <c r="B311" s="0" t="n">
-        <v>375000</v>
+        <v>817714.8</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4062,7 +3849,7 @@
         <v>312</v>
       </c>
       <c r="B312" s="0" t="n">
-        <v>264000</v>
+        <v>443520</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,7 +3857,7 @@
         <v>313</v>
       </c>
       <c r="B313" s="0" t="n">
-        <v>829143</v>
+        <v>166572</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,7 +3873,7 @@
         <v>315</v>
       </c>
       <c r="B315" s="0" t="n">
-        <v>406800</v>
+        <v>175944</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,7 +3881,7 @@
         <v>316</v>
       </c>
       <c r="B316" s="0" t="n">
-        <v>252000</v>
+        <v>198838.8</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4102,7 +3889,7 @@
         <v>317</v>
       </c>
       <c r="B317" s="0" t="n">
-        <v>280800</v>
+        <v>225286.8</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,7 +3897,7 @@
         <v>318</v>
       </c>
       <c r="B318" s="0" t="n">
-        <v>161482.8</v>
+        <v>237802.8</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,7 +3905,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="0" t="n">
-        <v>280800</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4126,7 +3913,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="0" t="n">
-        <v>315000</v>
+        <v>252876</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,7 +3921,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="0" t="n">
-        <v>438000</v>
+        <v>342000</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,7 +3929,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="0" t="n">
-        <v>264000</v>
+        <v>600915</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4150,7 +3937,7 @@
         <v>323</v>
       </c>
       <c r="B323" s="0" t="n">
-        <v>142595.5788</v>
+        <v>201802.8</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,7 +3945,7 @@
         <v>324</v>
       </c>
       <c r="B324" s="0" t="n">
-        <v>158602.8</v>
+        <v>167700</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,7 +3953,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="0" t="n">
-        <v>265200</v>
+        <v>361848</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4174,7 +3961,7 @@
         <v>326</v>
       </c>
       <c r="B326" s="0" t="n">
-        <v>145187.5788</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,7 +3969,7 @@
         <v>327</v>
       </c>
       <c r="B327" s="0" t="n">
-        <v>145187.5788</v>
+        <v>215983.92</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,7 +3977,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="0" t="n">
-        <v>233002.8</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,7 +3985,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="0" t="n">
-        <v>512388</v>
+        <v>372600</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,7 +3993,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="0" t="n">
-        <v>215950.8</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4214,7 +4001,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="0" t="n">
-        <v>288000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,7 +4009,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="0" t="n">
-        <v>233345.7</v>
+        <v>191302.8</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4230,7 +4017,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="0" t="n">
-        <v>300434.7</v>
+        <v>209002.8</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4238,7 +4025,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="0" t="n">
-        <v>936828</v>
+        <v>441180</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,7 +4033,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="0" t="n">
-        <v>111379.1052</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,7 +4041,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="0" t="n">
-        <v>118939.1052</v>
+        <v>708000</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4262,7 +4049,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="0" t="n">
-        <v>360000</v>
+        <v>221278.8</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,7 +4057,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="0" t="n">
-        <v>161531.5884</v>
+        <v>236002.8</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,7 +4065,7 @@
         <v>339</v>
       </c>
       <c r="B339" s="0" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,7 +4073,7 @@
         <v>340</v>
       </c>
       <c r="B340" s="0" t="n">
-        <v>229363.2</v>
+        <v>217402.8</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4294,7 +4081,7 @@
         <v>341</v>
       </c>
       <c r="B341" s="0" t="n">
-        <v>477888</v>
+        <v>261870</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4302,7 +4089,7 @@
         <v>342</v>
       </c>
       <c r="B342" s="0" t="n">
-        <v>179002.8</v>
+        <v>267960</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4310,7 +4097,7 @@
         <v>343</v>
       </c>
       <c r="B343" s="0" t="n">
-        <v>194002.8</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4318,7 +4105,7 @@
         <v>344</v>
       </c>
       <c r="B344" s="0" t="n">
-        <v>264000</v>
+        <v>253572</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4326,7 +4113,7 @@
         <v>345</v>
       </c>
       <c r="B345" s="0" t="n">
-        <v>358253.28</v>
+        <v>480048</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,7 +4121,7 @@
         <v>346</v>
       </c>
       <c r="B346" s="0" t="n">
-        <v>233002.8</v>
+        <v>266400</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4342,7 +4129,7 @@
         <v>347</v>
       </c>
       <c r="B347" s="0" t="n">
-        <v>230602.8</v>
+        <v>197002.8</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4350,7 +4137,7 @@
         <v>348</v>
       </c>
       <c r="B348" s="0" t="n">
-        <v>285714</v>
+        <v>1800183.798</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4358,7 +4145,7 @@
         <v>349</v>
       </c>
       <c r="B349" s="0" t="n">
-        <v>285714</v>
+        <v>203602.8</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4366,7 +4153,7 @@
         <v>350</v>
       </c>
       <c r="B350" s="0" t="n">
-        <v>149002.8</v>
+        <v>322500</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,7 +4161,7 @@
         <v>351</v>
       </c>
       <c r="B351" s="0" t="n">
-        <v>179002.8</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4382,7 +4169,7 @@
         <v>352</v>
       </c>
       <c r="B352" s="0" t="n">
-        <v>236050.8</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4390,7 +4177,7 @@
         <v>353</v>
       </c>
       <c r="B353" s="0" t="n">
-        <v>403200</v>
+        <v>424272</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,7 +4185,7 @@
         <v>354</v>
       </c>
       <c r="B354" s="0" t="n">
-        <v>360000</v>
+        <v>243120</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,7 +4193,7 @@
         <v>355</v>
       </c>
       <c r="B355" s="0" t="n">
-        <v>288000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,7 +4201,7 @@
         <v>356</v>
       </c>
       <c r="B356" s="0" t="n">
-        <v>227002.8</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4422,7 +4209,7 @@
         <v>357</v>
       </c>
       <c r="B357" s="0" t="n">
-        <v>254100</v>
+        <v>267300</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,7 +4217,7 @@
         <v>358</v>
       </c>
       <c r="B358" s="0" t="n">
-        <v>145223.6316</v>
+        <v>268284</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,7 +4225,7 @@
         <v>359</v>
       </c>
       <c r="B359" s="0" t="n">
-        <v>110596.842</v>
+        <v>300696</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,7 +4233,7 @@
         <v>360</v>
       </c>
       <c r="B360" s="0" t="n">
-        <v>276600</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,7 +4241,7 @@
         <v>361</v>
       </c>
       <c r="B361" s="0" t="n">
-        <v>300101.76</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,7 +4249,7 @@
         <v>362</v>
       </c>
       <c r="B362" s="0" t="n">
-        <v>239722.8</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,7 +4257,7 @@
         <v>363</v>
       </c>
       <c r="B363" s="0" t="n">
-        <v>264000</v>
+        <v>161002.8</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,7 +4265,7 @@
         <v>364</v>
       </c>
       <c r="B364" s="0" t="n">
-        <v>239722.8</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,7 +4273,7 @@
         <v>365</v>
       </c>
       <c r="B365" s="0" t="n">
-        <v>254280</v>
+        <v>158656.5672</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4494,7 +4281,7 @@
         <v>366</v>
       </c>
       <c r="B366" s="0" t="n">
-        <v>327320.4</v>
+        <v>158656.5672</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,7 +4289,7 @@
         <v>367</v>
       </c>
       <c r="B367" s="0" t="n">
-        <v>300000</v>
+        <v>298944</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4510,7 +4297,7 @@
         <v>368</v>
       </c>
       <c r="B368" s="0" t="n">
-        <v>180807</v>
+        <v>372432</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4305,7 @@
         <v>369</v>
       </c>
       <c r="B369" s="0" t="n">
-        <v>191002.8</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,7 +4313,7 @@
         <v>370</v>
       </c>
       <c r="B370" s="0" t="n">
-        <v>209002.8</v>
+        <v>481440</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,7 +4321,7 @@
         <v>371</v>
       </c>
       <c r="B371" s="0" t="n">
-        <v>384816</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +4329,7 @@
         <v>372</v>
       </c>
       <c r="B372" s="0" t="n">
-        <v>201000</v>
+        <v>867300</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,7 +4337,7 @@
         <v>373</v>
       </c>
       <c r="B373" s="0" t="n">
-        <v>254280</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4558,7 +4345,7 @@
         <v>374</v>
       </c>
       <c r="B374" s="0" t="n">
-        <v>348300</v>
+        <v>185002.8</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,7 +4353,7 @@
         <v>375</v>
       </c>
       <c r="B375" s="0" t="n">
-        <v>264000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,7 +4361,7 @@
         <v>376</v>
       </c>
       <c r="B376" s="0" t="n">
-        <v>303243.6</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4582,7 +4369,7 @@
         <v>377</v>
       </c>
       <c r="B377" s="0" t="n">
-        <v>348000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,7 +4377,7 @@
         <v>378</v>
       </c>
       <c r="B378" s="0" t="n">
-        <v>253836</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,7 +4385,7 @@
         <v>379</v>
       </c>
       <c r="B379" s="0" t="n">
-        <v>360000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,7 +4393,7 @@
         <v>380</v>
       </c>
       <c r="B380" s="0" t="n">
-        <v>252000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,7 +4401,7 @@
         <v>381</v>
       </c>
       <c r="B381" s="0" t="n">
-        <v>221002.8</v>
+        <v>158604</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,7 +4409,7 @@
         <v>382</v>
       </c>
       <c r="B382" s="0" t="n">
-        <v>817714.8</v>
+        <v>238944</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,7 +4417,7 @@
         <v>383</v>
       </c>
       <c r="B383" s="0" t="n">
-        <v>443520</v>
+        <v>244200</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,7 +4425,7 @@
         <v>384</v>
       </c>
       <c r="B384" s="0" t="n">
-        <v>166572</v>
+        <v>177706.8</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,7 +4433,7 @@
         <v>385</v>
       </c>
       <c r="B385" s="0" t="n">
-        <v>264000</v>
+        <v>514944</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,7 +4441,7 @@
         <v>386</v>
       </c>
       <c r="B386" s="0" t="n">
-        <v>175944</v>
+        <v>252012</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,7 +4449,7 @@
         <v>387</v>
       </c>
       <c r="B387" s="0" t="n">
-        <v>198838.8</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,7 +4457,7 @@
         <v>388</v>
       </c>
       <c r="B388" s="0" t="n">
-        <v>225286.8</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,7 +4465,7 @@
         <v>389</v>
       </c>
       <c r="B389" s="0" t="n">
-        <v>237802.8</v>
+        <v>173688</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4686,7 +4473,7 @@
         <v>390</v>
       </c>
       <c r="B390" s="0" t="n">
-        <v>324000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,7 +4481,7 @@
         <v>391</v>
       </c>
       <c r="B391" s="0" t="n">
-        <v>252876</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,7 +4489,7 @@
         <v>392</v>
       </c>
       <c r="B392" s="0" t="n">
-        <v>342000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,7 +4497,7 @@
         <v>393</v>
       </c>
       <c r="B393" s="0" t="n">
-        <v>600915</v>
+        <v>336120</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4718,7 +4505,7 @@
         <v>394</v>
       </c>
       <c r="B394" s="0" t="n">
-        <v>201802.8</v>
+        <v>265884</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,7 +4513,7 @@
         <v>395</v>
       </c>
       <c r="B395" s="0" t="n">
-        <v>167700</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,7 +4521,7 @@
         <v>396</v>
       </c>
       <c r="B396" s="0" t="n">
-        <v>361848</v>
+        <v>241812</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4742,7 +4529,7 @@
         <v>397</v>
       </c>
       <c r="B397" s="0" t="n">
-        <v>312000</v>
+        <v>227928</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,7 +4537,7 @@
         <v>398</v>
       </c>
       <c r="B398" s="0" t="n">
-        <v>215983.92</v>
+        <v>169212</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4758,7 +4545,7 @@
         <v>399</v>
       </c>
       <c r="B399" s="0" t="n">
-        <v>221002.8</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4766,7 +4553,7 @@
         <v>400</v>
       </c>
       <c r="B400" s="0" t="n">
-        <v>372600</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4774,574 +4561,6 @@
         <v>401</v>
       </c>
       <c r="B401" s="0" t="n">
-        <v>276000</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B402" s="0" t="n">
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B403" s="0" t="n">
-        <v>191302.8</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B404" s="0" t="n">
-        <v>209002.8</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B405" s="0" t="n">
-        <v>441180</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B406" s="0" t="n">
-        <v>480000</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B407" s="0" t="n">
-        <v>708000</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B408" s="0" t="n">
-        <v>221278.8</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B409" s="0" t="n">
-        <v>236002.8</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B410" s="0" t="n">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B411" s="0" t="n">
-        <v>217402.8</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B412" s="0" t="n">
-        <v>261870</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B413" s="0" t="n">
-        <v>267960</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B414" s="0" t="n">
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B415" s="0" t="n">
-        <v>253572</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B416" s="0" t="n">
-        <v>480048</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B417" s="0" t="n">
-        <v>266400</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B418" s="0" t="n">
-        <v>197002.8</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B419" s="0" t="n">
-        <v>1800183.798</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B420" s="0" t="n">
-        <v>203602.8</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B421" s="0" t="n">
-        <v>322500</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B422" s="0" t="n">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B423" s="0" t="n">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B424" s="0" t="n">
-        <v>424272</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B425" s="0" t="n">
-        <v>243120</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B426" s="0" t="n">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B427" s="0" t="n">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B428" s="0" t="n">
-        <v>267300</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B429" s="0" t="n">
-        <v>268284</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B430" s="0" t="n">
-        <v>300696</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B431" s="0" t="n">
-        <v>96000</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B432" s="0" t="n">
-        <v>86400</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B433" s="0" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B434" s="0" t="n">
-        <v>161002.8</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B435" s="0" t="n">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B436" s="0" t="n">
-        <v>158656.5672</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B437" s="0" t="n">
-        <v>158656.5672</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B438" s="0" t="n">
-        <v>298944</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B439" s="0" t="n">
-        <v>372432</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B440" s="0" t="n">
-        <v>252000</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B441" s="0" t="n">
-        <v>481440</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B442" s="0" t="n">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B443" s="0" t="n">
-        <v>867300</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B444" s="0" t="n">
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B445" s="0" t="n">
-        <v>185002.8</v>
-      </c>
-    </row>
-    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B446" s="0" t="n">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B447" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B448" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B449" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B450" s="0" t="n">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B451" s="0" t="n">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B452" s="0" t="n">
-        <v>158604</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B453" s="0" t="n">
-        <v>238944</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B454" s="0" t="n">
-        <v>244200</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B455" s="0" t="n">
-        <v>177706.8</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B456" s="0" t="n">
-        <v>514944</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B457" s="0" t="n">
-        <v>252012</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B458" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B459" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B460" s="0" t="n">
-        <v>173688</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B461" s="0" t="n">
-        <v>264000</v>
-      </c>
-    </row>
-    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B462" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B463" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B464" s="0" t="n">
-        <v>336120</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B465" s="0" t="n">
-        <v>265884</v>
-      </c>
-    </row>
-    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B466" s="0" t="n">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B467" s="0" t="n">
-        <v>241812</v>
-      </c>
-    </row>
-    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B468" s="0" t="n">
-        <v>227928</v>
-      </c>
-    </row>
-    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B469" s="0" t="n">
-        <v>169212</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B470" s="0" t="n">
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B471" s="0" t="n">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B472" s="0" t="n">
         <v>336000</v>
       </c>
     </row>

--- a/contract_update.xlsx
+++ b/contract_update.xlsx
@@ -20,261 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t xml:space="preserve">barcode</t>
   </si>
   <si>
     <t xml:space="preserve">base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0852</t>
   </si>
   <si>
     <t xml:space="preserve">0854</t>
@@ -1345,10 +1096,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1369,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>739200</v>
+        <v>280725.6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>766072.8</v>
+        <v>288868.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>308880</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>209390.4</v>
+        <v>299999.7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>176449.44</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>174118.8</v>
+        <v>264724.2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,7 +1168,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>155139</v>
+        <v>364425</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,7 +1176,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>157958.76</v>
+        <v>173002.8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>135366.4344</v>
+        <v>444000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>141516.4344</v>
+        <v>396750</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>193102.8</v>
+        <v>411165</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>480004.7064</v>
+        <v>239002.8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>107847.7896</v>
+        <v>358701.12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,7 +1224,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>99602.6316</v>
+        <v>358320</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,7 +1232,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1260000</v>
+        <v>1061713.8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,7 +1240,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>107847.7896</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,7 +1248,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>430702.8</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>356892</v>
+        <v>236569.2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>335400</v>
+        <v>236226</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,7 +1272,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>528000</v>
+        <v>344752.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,7 +1280,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>480000</v>
+        <v>298848</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,7 +1288,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>236662.8</v>
+        <v>179496</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1545,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>312964.8</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,7 +1304,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>630000</v>
+        <v>188369.4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,7 +1312,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>504948</v>
+        <v>145848.144</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,7 +1320,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>175245.6</v>
+        <v>161721.6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,7 +1328,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>360000</v>
+        <v>364425</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,7 +1336,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>336000</v>
+        <v>299304.72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,7 +1344,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>272727</v>
+        <v>404556</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,7 +1352,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>279850.2</v>
+        <v>348852</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,7 +1360,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>204718.8</v>
+        <v>191002.8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,7 +1368,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1146817.44</v>
+        <v>203002.8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,7 +1376,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>384000</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,7 +1384,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>365952</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,7 +1392,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>509942.4</v>
+        <v>252012</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,7 +1400,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>180226.2</v>
+        <v>337879.2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,7 +1408,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>231514.32</v>
+        <v>236967</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,7 +1416,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>252074.16</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,7 +1424,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>314130.96</v>
+        <v>113069.9472</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,7 +1432,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>109496.8212</v>
+        <v>436632</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,7 +1440,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>70684.5264</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1697,7 +1448,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>113069.9472</v>
+        <v>150344.2632</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,7 +1456,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>314130.96</v>
+        <v>422400</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,7 +1464,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>2011590</v>
+        <v>360654</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,7 +1472,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1047551.4</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1729,7 +1480,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>388860.12</v>
+        <v>151402.8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,7 +1488,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,7 +1496,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>173807.478</v>
+        <v>290400</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,7 +1504,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>285012</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,7 +1512,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>155659.4004</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,7 +1520,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>428832</v>
+        <v>134709.4212</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,7 +1528,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>556656</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,7 +1536,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>150807.4896</v>
+        <v>429576</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,7 +1544,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>972052.2</v>
+        <v>277992</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,7 +1552,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>233002.8</v>
+        <v>191002.8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,7 +1560,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>238913.4</v>
+        <v>402732</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,7 +1568,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>228874.8</v>
+        <v>427200</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,7 +1576,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>288107.82</v>
+        <v>627288</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,7 +1584,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>259104</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,7 +1592,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>264000</v>
+        <v>384426</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,7 +1608,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>245002.8</v>
+        <v>235192.8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,7 +1616,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>300000</v>
+        <v>284095.2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,7 +1624,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>360000</v>
+        <v>186754.8</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,7 +1632,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>447480</v>
+        <v>309441.6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,7 +1640,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>300000</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,7 +1648,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>300000</v>
+        <v>264720</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,7 +1656,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>111053.9472</v>
+        <v>273780</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,7 +1664,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>339000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,7 +1672,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,7 +1680,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>213399.6</v>
+        <v>317304</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,7 +1688,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>245002.8</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,7 +1696,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>360000</v>
+        <v>328152</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,7 +1704,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>300000</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,7 +1712,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>288545.25</v>
+        <v>298320</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,7 +1720,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>364425</v>
+        <v>239002.8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,7 +1728,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>695671.2</v>
+        <v>455616</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,7 +1736,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>276276.9</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,7 +1744,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>330000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2001,7 +1752,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>384000</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,7 +1760,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>286680</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,7 +1768,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>276000</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,7 +1776,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>607200</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,7 +1784,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>280725.6</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,7 +1792,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>288868.8</v>
+        <v>339000</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,7 +1800,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>288000</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,7 +1808,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>299999.7</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,7 +1816,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>300000</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,7 +1824,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>264724.2</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,7 +1832,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>364425</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,7 +1840,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>173002.8</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,7 +1848,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>444000</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,7 +1856,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>396750</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,7 +1864,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>411165</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,7 +1872,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>239002.8</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2129,7 +1880,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>358701.12</v>
+        <v>222480</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,7 +1888,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>358320</v>
+        <v>222480</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2145,7 +1896,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>1061713.8</v>
+        <v>170602.8</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,7 +1904,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>372900</v>
+        <v>328152</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,7 +1912,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>372900</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,7 +1920,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>236569.2</v>
+        <v>188439.6</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2177,7 +1928,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>236226</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,7 +1936,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>344752.5</v>
+        <v>173002.8</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,7 +1944,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>298848</v>
+        <v>264143.25</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,7 +1952,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>179496</v>
+        <v>245002.8</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,7 +1960,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>233002.8</v>
+        <v>203002.8</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2217,7 +1968,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>188369.4</v>
+        <v>240106.8</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,7 +1976,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>145848.144</v>
+        <v>240106.8</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,7 +1984,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>161721.6</v>
+        <v>372000</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,7 +1992,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>364425</v>
+        <v>205440</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2249,7 +2000,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>299304.72</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,7 +2008,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>404556</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,7 +2016,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>348852</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2273,7 +2024,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>191002.8</v>
+        <v>201600</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,7 +2032,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>203002.8</v>
+        <v>270192</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,7 +2040,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>158602.8</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,7 +2048,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>162535.8</v>
+        <v>300105</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,7 +2056,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>252012</v>
+        <v>437310</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,7 +2064,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>337879.2</v>
+        <v>236662.8</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,7 +2072,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>236967</v>
+        <v>312109.2</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,7 +2080,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>111053.9472</v>
+        <v>264092.4</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,7 +2088,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>113069.9472</v>
+        <v>160042.8</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,7 +2096,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>436632</v>
+        <v>235192.8</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,7 +2104,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>158602.8</v>
+        <v>280098</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,7 +2112,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>150344.2632</v>
+        <v>229402.8</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,7 +2120,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>422400</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,7 +2128,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>360654</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,7 +2136,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>288000</v>
+        <v>385212</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,7 +2144,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>151402.8</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,7 +2152,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>360000</v>
+        <v>372000</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,7 +2160,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>290400</v>
+        <v>582000</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2417,7 +2168,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>111053.9472</v>
+        <v>308880</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,7 +2176,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>111053.9472</v>
+        <v>291060</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2433,7 +2184,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>134709.4212</v>
+        <v>346500</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,7 +2192,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>360000</v>
+        <v>197002.8</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,7 +2200,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>429576</v>
+        <v>554400</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,7 +2208,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>277992</v>
+        <v>359520</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,7 +2216,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>191002.8</v>
+        <v>400020</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,7 +2224,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>402732</v>
+        <v>264600</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,7 +2232,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>427200</v>
+        <v>462000</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,7 +2240,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>627288</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,7 +2248,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>336000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,7 +2256,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>384426</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,7 +2264,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>233002.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,7 +2272,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>235192.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,7 +2280,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>284095.2</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,7 +2288,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>186754.8</v>
+        <v>339000</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,7 +2296,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>309441.6</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,7 +2304,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>221002.8</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,7 +2312,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>264720</v>
+        <v>247200</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,7 +2320,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>273780</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,7 +2328,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>300000</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,7 +2336,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>300000</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,7 +2344,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>317304</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,7 +2352,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>221002.8</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,7 +2360,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>328152</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,7 +2368,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>372900</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,7 +2376,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>298320</v>
+        <v>829143</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,7 +2384,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>239002.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2641,7 +2392,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>455616</v>
+        <v>406800</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,7 +2400,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>372900</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,7 +2408,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>264000</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,7 +2416,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>321000</v>
+        <v>161482.8</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,7 +2424,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>321000</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2681,7 +2432,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>321000</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,7 +2440,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>420000</v>
+        <v>438000</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,7 +2448,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>321000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,7 +2456,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>339000</v>
+        <v>142595.5788</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,7 +2464,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>720000</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,7 +2472,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>321000</v>
+        <v>265200</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,7 +2480,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>321000</v>
+        <v>145187.5788</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,7 +2488,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>321000</v>
+        <v>145187.5788</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,7 +2496,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>321000</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2753,7 +2504,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>321000</v>
+        <v>512388</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,7 +2512,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>321000</v>
+        <v>215950.8</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,7 +2520,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>309000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,7 +2528,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>309000</v>
+        <v>233345.7</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,7 +2536,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>309000</v>
+        <v>300434.7</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,7 +2544,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>222480</v>
+        <v>936828</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,7 +2552,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>222480</v>
+        <v>111379.1052</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2809,7 +2560,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>170602.8</v>
+        <v>118939.1052</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,7 +2568,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>328152</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,7 +2576,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>162535.8</v>
+        <v>161531.5884</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,7 +2584,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>188439.6</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,7 +2592,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>162535.8</v>
+        <v>229363.2</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,7 +2600,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>173002.8</v>
+        <v>477888</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,7 +2608,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>264143.25</v>
+        <v>179002.8</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2865,7 +2616,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>245002.8</v>
+        <v>194002.8</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,7 +2624,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>203002.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,7 +2632,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>240106.8</v>
+        <v>358253.28</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,7 +2640,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>240106.8</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,7 +2648,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>372000</v>
+        <v>230602.8</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,7 +2656,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>205440</v>
+        <v>285714</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,7 +2664,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>151200</v>
+        <v>285714</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,7 +2672,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>151200</v>
+        <v>149002.8</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,7 +2680,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>151200</v>
+        <v>179002.8</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,7 +2688,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>201600</v>
+        <v>236050.8</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,7 +2696,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>270192</v>
+        <v>403200</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,7 +2704,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>660000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2961,7 +2712,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>300105</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2969,7 +2720,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>437310</v>
+        <v>227002.8</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,7 +2728,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>236662.8</v>
+        <v>254100</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,7 +2736,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>312109.2</v>
+        <v>145223.6316</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,7 +2744,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>264092.4</v>
+        <v>110596.842</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,7 +2752,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>160042.8</v>
+        <v>276600</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,7 +2760,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>235192.8</v>
+        <v>300101.76</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,7 +2768,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>280098</v>
+        <v>239722.8</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,7 +2776,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>229402.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3033,7 +2784,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>264000</v>
+        <v>239722.8</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3041,7 +2792,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>158602.8</v>
+        <v>254280</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,7 +2800,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>385212</v>
+        <v>327320.4</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,7 +2808,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>288000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,7 +2816,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>372000</v>
+        <v>180807</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,7 +2824,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>582000</v>
+        <v>191002.8</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,7 +2832,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>308880</v>
+        <v>209002.8</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3089,7 +2840,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>291060</v>
+        <v>384816</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,7 +2848,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>346500</v>
+        <v>201000</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,7 +2856,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>197002.8</v>
+        <v>254280</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,7 +2864,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>554400</v>
+        <v>348300</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,7 +2872,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>359520</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3129,7 +2880,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>400020</v>
+        <v>303243.6</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,7 +2888,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>264600</v>
+        <v>348000</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,7 +2896,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>462000</v>
+        <v>253836</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,7 +2904,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>264000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,7 +2912,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>264000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,7 +2920,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>264000</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,7 +2928,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>264000</v>
+        <v>817714.8</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3185,7 +2936,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>264000</v>
+        <v>443520</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3193,7 +2944,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>264000</v>
+        <v>166572</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,7 +2952,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>339000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,7 +2960,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>280800</v>
+        <v>175944</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3217,7 +2968,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>280800</v>
+        <v>198838.8</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,7 +2976,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>247200</v>
+        <v>225286.8</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3233,7 +2984,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>256800</v>
+        <v>237802.8</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,7 +2992,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>256800</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3000,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>256800</v>
+        <v>252876</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,7 +3008,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>256800</v>
+        <v>342000</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3265,7 +3016,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>256800</v>
+        <v>600915</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,7 +3024,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>375000</v>
+        <v>201802.8</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,7 +3032,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>264000</v>
+        <v>167700</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,7 +3040,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>829143</v>
+        <v>361848</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,7 +3048,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>264000</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3305,7 +3056,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>406800</v>
+        <v>215983.92</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,7 +3064,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>252000</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,7 +3072,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>280800</v>
+        <v>372600</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,7 +3080,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>161482.8</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,7 +3088,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>280800</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,7 +3096,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>315000</v>
+        <v>191302.8</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,7 +3104,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>438000</v>
+        <v>209002.8</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,7 +3112,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>264000</v>
+        <v>441180</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3369,7 +3120,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>142595.5788</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,7 +3128,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>158602.8</v>
+        <v>708000</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,7 +3136,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>265200</v>
+        <v>221278.8</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,7 +3144,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>145187.5788</v>
+        <v>236002.8</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,7 +3152,7 @@
         <v>256</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>145187.5788</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,7 +3160,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>233002.8</v>
+        <v>217402.8</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,7 +3168,7 @@
         <v>258</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>512388</v>
+        <v>261870</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,7 +3176,7 @@
         <v>259</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>215950.8</v>
+        <v>267960</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,7 +3184,7 @@
         <v>260</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>288000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,7 +3192,7 @@
         <v>261</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>233345.7</v>
+        <v>253572</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,7 +3200,7 @@
         <v>262</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>300434.7</v>
+        <v>480048</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,7 +3208,7 @@
         <v>263</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>936828</v>
+        <v>266400</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,7 +3216,7 @@
         <v>264</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>111379.1052</v>
+        <v>197002.8</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,7 +3224,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>118939.1052</v>
+        <v>1800183.798</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,7 +3232,7 @@
         <v>266</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>360000</v>
+        <v>203602.8</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,7 +3240,7 @@
         <v>267</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>161531.5884</v>
+        <v>322500</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,7 +3248,7 @@
         <v>268</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,7 +3256,7 @@
         <v>269</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>229363.2</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,7 +3264,7 @@
         <v>270</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>477888</v>
+        <v>424272</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,7 +3272,7 @@
         <v>271</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>179002.8</v>
+        <v>243120</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,7 +3280,7 @@
         <v>272</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>194002.8</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,7 +3288,7 @@
         <v>273</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>264000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3545,7 +3296,7 @@
         <v>274</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>358253.28</v>
+        <v>267300</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,7 +3304,7 @@
         <v>275</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>233002.8</v>
+        <v>268284</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,7 +3312,7 @@
         <v>276</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>230602.8</v>
+        <v>300696</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,7 +3320,7 @@
         <v>277</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>285714</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,7 +3328,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="0" t="n">
-        <v>285714</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,7 +3336,7 @@
         <v>279</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>149002.8</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,7 +3344,7 @@
         <v>280</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>179002.8</v>
+        <v>161002.8</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,7 +3352,7 @@
         <v>281</v>
       </c>
       <c r="B281" s="0" t="n">
-        <v>236050.8</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,7 +3360,7 @@
         <v>282</v>
       </c>
       <c r="B282" s="0" t="n">
-        <v>403200</v>
+        <v>158656.5672</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,7 +3368,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="0" t="n">
-        <v>360000</v>
+        <v>158656.5672</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,7 +3376,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="0" t="n">
-        <v>288000</v>
+        <v>298944</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,7 +3384,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="0" t="n">
-        <v>227002.8</v>
+        <v>372432</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,7 +3392,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="0" t="n">
-        <v>254100</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,7 +3400,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="0" t="n">
-        <v>145223.6316</v>
+        <v>481440</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3657,7 +3408,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="0" t="n">
-        <v>110596.842</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,7 +3416,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>276600</v>
+        <v>867300</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,7 +3424,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="0" t="n">
-        <v>300101.76</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,7 +3432,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="0" t="n">
-        <v>239722.8</v>
+        <v>185002.8</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,7 +3440,7 @@
         <v>292</v>
       </c>
       <c r="B292" s="0" t="n">
-        <v>264000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,7 +3448,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="0" t="n">
-        <v>239722.8</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,7 +3456,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="0" t="n">
-        <v>254280</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3713,7 +3464,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="0" t="n">
-        <v>327320.4</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,7 +3472,7 @@
         <v>296</v>
       </c>
       <c r="B296" s="0" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,7 +3480,7 @@
         <v>297</v>
       </c>
       <c r="B297" s="0" t="n">
-        <v>180807</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,7 +3488,7 @@
         <v>298</v>
       </c>
       <c r="B298" s="0" t="n">
-        <v>191002.8</v>
+        <v>158604</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3745,7 +3496,7 @@
         <v>299</v>
       </c>
       <c r="B299" s="0" t="n">
-        <v>209002.8</v>
+        <v>238944</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,7 +3504,7 @@
         <v>300</v>
       </c>
       <c r="B300" s="0" t="n">
-        <v>384816</v>
+        <v>244200</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,7 +3512,7 @@
         <v>301</v>
       </c>
       <c r="B301" s="0" t="n">
-        <v>201000</v>
+        <v>177706.8</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,7 +3520,7 @@
         <v>302</v>
       </c>
       <c r="B302" s="0" t="n">
-        <v>254280</v>
+        <v>514944</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,7 +3528,7 @@
         <v>303</v>
       </c>
       <c r="B303" s="0" t="n">
-        <v>348300</v>
+        <v>252012</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,7 +3536,7 @@
         <v>304</v>
       </c>
       <c r="B304" s="0" t="n">
-        <v>264000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,7 +3544,7 @@
         <v>305</v>
       </c>
       <c r="B305" s="0" t="n">
-        <v>303243.6</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,7 +3552,7 @@
         <v>306</v>
       </c>
       <c r="B306" s="0" t="n">
-        <v>348000</v>
+        <v>173688</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,7 +3560,7 @@
         <v>307</v>
       </c>
       <c r="B307" s="0" t="n">
-        <v>253836</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,7 +3568,7 @@
         <v>308</v>
       </c>
       <c r="B308" s="0" t="n">
-        <v>360000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,7 +3576,7 @@
         <v>309</v>
       </c>
       <c r="B309" s="0" t="n">
-        <v>252000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3833,7 +3584,7 @@
         <v>310</v>
       </c>
       <c r="B310" s="0" t="n">
-        <v>221002.8</v>
+        <v>336120</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,7 +3592,7 @@
         <v>311</v>
       </c>
       <c r="B311" s="0" t="n">
-        <v>817714.8</v>
+        <v>265884</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3849,7 +3600,7 @@
         <v>312</v>
       </c>
       <c r="B312" s="0" t="n">
-        <v>443520</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,7 +3608,7 @@
         <v>313</v>
       </c>
       <c r="B313" s="0" t="n">
-        <v>166572</v>
+        <v>241812</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,7 +3616,7 @@
         <v>314</v>
       </c>
       <c r="B314" s="0" t="n">
-        <v>264000</v>
+        <v>227928</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3873,7 +3624,7 @@
         <v>315</v>
       </c>
       <c r="B315" s="0" t="n">
-        <v>175944</v>
+        <v>169212</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,7 +3632,7 @@
         <v>316</v>
       </c>
       <c r="B316" s="0" t="n">
-        <v>198838.8</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3889,7 +3640,7 @@
         <v>317</v>
       </c>
       <c r="B317" s="0" t="n">
-        <v>225286.8</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3897,670 +3648,6 @@
         <v>318</v>
       </c>
       <c r="B318" s="0" t="n">
-        <v>237802.8</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B319" s="0" t="n">
-        <v>324000</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B320" s="0" t="n">
-        <v>252876</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B321" s="0" t="n">
-        <v>342000</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B322" s="0" t="n">
-        <v>600915</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B323" s="0" t="n">
-        <v>201802.8</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B324" s="0" t="n">
-        <v>167700</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B325" s="0" t="n">
-        <v>361848</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B326" s="0" t="n">
-        <v>312000</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B327" s="0" t="n">
-        <v>215983.92</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B328" s="0" t="n">
-        <v>221002.8</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B329" s="0" t="n">
-        <v>372600</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B330" s="0" t="n">
-        <v>276000</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B331" s="0" t="n">
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B332" s="0" t="n">
-        <v>191302.8</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B333" s="0" t="n">
-        <v>209002.8</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B334" s="0" t="n">
-        <v>441180</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B335" s="0" t="n">
-        <v>480000</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B336" s="0" t="n">
-        <v>708000</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B337" s="0" t="n">
-        <v>221278.8</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B338" s="0" t="n">
-        <v>236002.8</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B339" s="0" t="n">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B340" s="0" t="n">
-        <v>217402.8</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B341" s="0" t="n">
-        <v>261870</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B342" s="0" t="n">
-        <v>267960</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B343" s="0" t="n">
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B344" s="0" t="n">
-        <v>253572</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B345" s="0" t="n">
-        <v>480048</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B346" s="0" t="n">
-        <v>266400</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B347" s="0" t="n">
-        <v>197002.8</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B348" s="0" t="n">
-        <v>1800183.798</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B349" s="0" t="n">
-        <v>203602.8</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B350" s="0" t="n">
-        <v>322500</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B351" s="0" t="n">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B352" s="0" t="n">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B353" s="0" t="n">
-        <v>424272</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B354" s="0" t="n">
-        <v>243120</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B355" s="0" t="n">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B356" s="0" t="n">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B357" s="0" t="n">
-        <v>267300</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B358" s="0" t="n">
-        <v>268284</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B359" s="0" t="n">
-        <v>300696</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B360" s="0" t="n">
-        <v>96000</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B361" s="0" t="n">
-        <v>86400</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B362" s="0" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B363" s="0" t="n">
-        <v>161002.8</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B364" s="0" t="n">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B365" s="0" t="n">
-        <v>158656.5672</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B366" s="0" t="n">
-        <v>158656.5672</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B367" s="0" t="n">
-        <v>298944</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B368" s="0" t="n">
-        <v>372432</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B369" s="0" t="n">
-        <v>252000</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B370" s="0" t="n">
-        <v>481440</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B371" s="0" t="n">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B372" s="0" t="n">
-        <v>867300</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B373" s="0" t="n">
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B374" s="0" t="n">
-        <v>185002.8</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B375" s="0" t="n">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B376" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B377" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B378" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B379" s="0" t="n">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B380" s="0" t="n">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B381" s="0" t="n">
-        <v>158604</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B382" s="0" t="n">
-        <v>238944</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B383" s="0" t="n">
-        <v>244200</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B384" s="0" t="n">
-        <v>177706.8</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B385" s="0" t="n">
-        <v>514944</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B386" s="0" t="n">
-        <v>252012</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B387" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B388" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B389" s="0" t="n">
-        <v>173688</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B390" s="0" t="n">
-        <v>264000</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B391" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B392" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B393" s="0" t="n">
-        <v>336120</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B394" s="0" t="n">
-        <v>265884</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B395" s="0" t="n">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B396" s="0" t="n">
-        <v>241812</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B397" s="0" t="n">
-        <v>227928</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B398" s="0" t="n">
-        <v>169212</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B399" s="0" t="n">
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B400" s="0" t="n">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B401" s="0" t="n">
         <v>336000</v>
       </c>
     </row>

--- a/contract_update.xlsx
+++ b/contract_update.xlsx
@@ -20,99 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
   <si>
     <t xml:space="preserve">barcode</t>
   </si>
   <si>
     <t xml:space="preserve">base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0973</t>
   </si>
   <si>
     <t xml:space="preserve">0978</t>
@@ -1096,10 +1009,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1120,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>280725.6</v>
+        <v>348852</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>288868.8</v>
+        <v>191002.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>288000</v>
+        <v>203002.8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>299999.7</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>300000</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>264724.2</v>
+        <v>252012</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,7 +1081,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>364425</v>
+        <v>337879.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>173002.8</v>
+        <v>236967</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>444000</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>396750</v>
+        <v>113069.9472</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>411165</v>
+        <v>436632</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,7 +1121,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>239002.8</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>358701.12</v>
+        <v>150344.2632</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>358320</v>
+        <v>422400</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,7 +1145,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1061713.8</v>
+        <v>360654</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,7 +1153,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>372900</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,7 +1161,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>372900</v>
+        <v>151402.8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>236569.2</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,7 +1177,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>236226</v>
+        <v>290400</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,7 +1185,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>344752.5</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,7 +1193,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>298848</v>
+        <v>111053.9472</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,7 +1201,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>179496</v>
+        <v>134709.4212</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,7 +1209,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>233002.8</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,7 +1217,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>188369.4</v>
+        <v>429576</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,7 +1225,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>145848.144</v>
+        <v>277992</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,7 +1233,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>161721.6</v>
+        <v>191002.8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,7 +1241,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>364425</v>
+        <v>402732</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1336,7 +1249,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>299304.72</v>
+        <v>427200</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,7 +1257,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>404556</v>
+        <v>627288</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,7 +1265,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>348852</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,7 +1273,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>191002.8</v>
+        <v>384426</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,7 +1281,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>203002.8</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,7 +1289,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>158602.8</v>
+        <v>235192.8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,7 +1297,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>162535.8</v>
+        <v>284095.2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,7 +1305,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>252012</v>
+        <v>186754.8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,7 +1313,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>337879.2</v>
+        <v>309441.6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,7 +1321,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>236967</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,7 +1329,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>111053.9472</v>
+        <v>264720</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,7 +1337,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>113069.9472</v>
+        <v>273780</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,7 +1345,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>436632</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,7 +1353,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>158602.8</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,7 +1361,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>150344.2632</v>
+        <v>317304</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,7 +1369,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>422400</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,7 +1377,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>360654</v>
+        <v>328152</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,7 +1385,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>288000</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,7 +1393,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>151402.8</v>
+        <v>298320</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,7 +1401,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>360000</v>
+        <v>239002.8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,7 +1409,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>290400</v>
+        <v>455616</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,7 +1417,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>111053.9472</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,7 +1425,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>111053.9472</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,7 +1433,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>134709.4212</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,7 +1441,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>360000</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,7 +1449,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>429576</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,7 +1457,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>277992</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,7 +1465,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>191002.8</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1560,7 +1473,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>402732</v>
+        <v>339000</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,7 +1481,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>427200</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,7 +1489,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>627288</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,7 +1497,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>336000</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,7 +1505,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>384426</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,7 +1513,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>233002.8</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,7 +1521,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>235192.8</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,7 +1529,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>284095.2</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,7 +1537,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>186754.8</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1632,7 +1545,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>309441.6</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,7 +1553,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>221002.8</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,7 +1561,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>264720</v>
+        <v>222480</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,7 +1569,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>273780</v>
+        <v>222480</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,7 +1577,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>300000</v>
+        <v>170602.8</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,7 +1585,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>300000</v>
+        <v>328152</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,7 +1593,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>317304</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,7 +1601,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>221002.8</v>
+        <v>188439.6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,7 +1609,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>328152</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,7 +1617,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>372900</v>
+        <v>173002.8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,7 +1625,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>298320</v>
+        <v>264143.25</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,7 +1633,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>239002.8</v>
+        <v>245002.8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,7 +1641,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>455616</v>
+        <v>203002.8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,7 +1649,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>372900</v>
+        <v>240106.8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,7 +1657,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>264000</v>
+        <v>240106.8</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,7 +1665,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>321000</v>
+        <v>372000</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,7 +1673,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>321000</v>
+        <v>205440</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,7 +1681,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>321000</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1776,7 +1689,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>420000</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,7 +1697,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>321000</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,7 +1705,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>339000</v>
+        <v>201600</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,7 +1713,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>720000</v>
+        <v>270192</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,7 +1721,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>321000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,7 +1729,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>321000</v>
+        <v>300105</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,7 +1737,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>321000</v>
+        <v>437310</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,7 +1745,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>321000</v>
+        <v>236662.8</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,7 +1753,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>321000</v>
+        <v>312109.2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,7 +1761,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>321000</v>
+        <v>264092.4</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,7 +1769,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>309000</v>
+        <v>160042.8</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,7 +1777,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>309000</v>
+        <v>235192.8</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,7 +1785,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>309000</v>
+        <v>280098</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,7 +1793,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>222480</v>
+        <v>229402.8</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,7 +1801,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>222480</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,7 +1809,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>170602.8</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,7 +1817,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>328152</v>
+        <v>385212</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,7 +1825,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>162535.8</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1920,7 +1833,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>188439.6</v>
+        <v>372000</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,7 +1841,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>162535.8</v>
+        <v>582000</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,7 +1849,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>173002.8</v>
+        <v>308880</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,7 +1857,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>264143.25</v>
+        <v>291060</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,7 +1865,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>245002.8</v>
+        <v>346500</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1960,7 +1873,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>203002.8</v>
+        <v>197002.8</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1968,7 +1881,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>240106.8</v>
+        <v>554400</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,7 +1889,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>240106.8</v>
+        <v>359520</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,7 +1897,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>372000</v>
+        <v>400020</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,7 +1905,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>205440</v>
+        <v>264600</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,7 +1913,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>151200</v>
+        <v>462000</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,7 +1921,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>151200</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,7 +1929,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>151200</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2024,7 +1937,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>201600</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,7 +1945,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>270192</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2040,7 +1953,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>660000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2048,7 +1961,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>300105</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,7 +1969,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>437310</v>
+        <v>339000</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,7 +1977,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>236662.8</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,7 +1985,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>312109.2</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,7 +1993,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>264092.4</v>
+        <v>247200</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,7 +2001,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>160042.8</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2096,7 +2009,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>235192.8</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2104,7 +2017,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>280098</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2112,7 +2025,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>229402.8</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,7 +2033,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>264000</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2128,7 +2041,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>158602.8</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2136,7 +2049,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>385212</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2144,7 +2057,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>288000</v>
+        <v>829143</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,7 +2065,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>372000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,7 +2073,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>582000</v>
+        <v>406800</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,7 +2081,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>308880</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,7 +2089,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>291060</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,7 +2097,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>346500</v>
+        <v>161482.8</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,7 +2105,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>197002.8</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,7 +2113,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>554400</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,7 +2121,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>359520</v>
+        <v>438000</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,7 +2129,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>400020</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,7 +2137,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>264600</v>
+        <v>142595.5788</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,7 +2145,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>462000</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,7 +2153,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>264000</v>
+        <v>265200</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,7 +2161,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>264000</v>
+        <v>145187.5788</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,7 +2169,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>264000</v>
+        <v>145187.5788</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,7 +2177,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>264000</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,7 +2185,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>264000</v>
+        <v>512388</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,7 +2193,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>264000</v>
+        <v>215950.8</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,7 +2201,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>339000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,7 +2209,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>280800</v>
+        <v>233345.7</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,7 +2217,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>280800</v>
+        <v>300434.7</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,7 +2225,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>247200</v>
+        <v>936828</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,7 +2233,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>256800</v>
+        <v>111379.1052</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,7 +2241,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>256800</v>
+        <v>118939.1052</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,7 +2249,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>256800</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,7 +2257,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>256800</v>
+        <v>161531.5884</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,7 +2265,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>256800</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2360,7 +2273,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>375000</v>
+        <v>229363.2</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,7 +2281,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>264000</v>
+        <v>477888</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,7 +2289,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>829143</v>
+        <v>179002.8</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,7 +2297,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>264000</v>
+        <v>194002.8</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2392,7 +2305,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>406800</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,7 +2313,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>252000</v>
+        <v>358253.28</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,7 +2321,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>280800</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,7 +2329,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>161482.8</v>
+        <v>230602.8</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,7 +2337,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>280800</v>
+        <v>285714</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,7 +2345,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>315000</v>
+        <v>285714</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,7 +2353,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>438000</v>
+        <v>149002.8</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,7 +2361,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>264000</v>
+        <v>179002.8</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,7 +2369,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>142595.5788</v>
+        <v>236050.8</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,7 +2377,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>158602.8</v>
+        <v>403200</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,7 +2385,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>265200</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2480,7 +2393,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>145187.5788</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,7 +2401,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>145187.5788</v>
+        <v>227002.8</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,7 +2409,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>233002.8</v>
+        <v>254100</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,7 +2417,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>512388</v>
+        <v>145223.6316</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2512,7 +2425,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>215950.8</v>
+        <v>110596.842</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,7 +2433,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>288000</v>
+        <v>276600</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,7 +2441,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>233345.7</v>
+        <v>300101.76</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2536,7 +2449,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>300434.7</v>
+        <v>239722.8</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,7 +2457,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>936828</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,7 +2465,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>111379.1052</v>
+        <v>239722.8</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,7 +2473,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>118939.1052</v>
+        <v>254280</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,7 +2481,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>360000</v>
+        <v>327320.4</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,7 +2489,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>161531.5884</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,7 +2497,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>300000</v>
+        <v>180807</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,7 +2505,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>229363.2</v>
+        <v>191002.8</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,7 +2513,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>477888</v>
+        <v>209002.8</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,7 +2521,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>179002.8</v>
+        <v>384816</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,7 +2529,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>194002.8</v>
+        <v>201000</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,7 +2537,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>264000</v>
+        <v>254280</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,7 +2545,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>358253.28</v>
+        <v>348300</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,7 +2553,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>233002.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,7 +2561,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>230602.8</v>
+        <v>303243.6</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2656,7 +2569,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>285714</v>
+        <v>348000</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,7 +2577,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>285714</v>
+        <v>253836</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,7 +2585,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>149002.8</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2680,7 +2593,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>179002.8</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,7 +2601,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>236050.8</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,7 +2609,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>403200</v>
+        <v>817714.8</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,7 +2617,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>360000</v>
+        <v>443520</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,7 +2625,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>288000</v>
+        <v>166572</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,7 +2633,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>227002.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,7 +2641,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>254100</v>
+        <v>175944</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2736,7 +2649,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>145223.6316</v>
+        <v>198838.8</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,7 +2657,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>110596.842</v>
+        <v>225286.8</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,7 +2665,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>276600</v>
+        <v>237802.8</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,7 +2673,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>300101.76</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,7 +2681,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>239722.8</v>
+        <v>252876</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,7 +2689,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>264000</v>
+        <v>342000</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,7 +2697,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>239722.8</v>
+        <v>600915</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,7 +2705,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>254280</v>
+        <v>201802.8</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,7 +2713,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>327320.4</v>
+        <v>167700</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,7 +2721,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>300000</v>
+        <v>361848</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,7 +2729,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>180807</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,7 +2737,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>191002.8</v>
+        <v>215983.92</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2832,7 +2745,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>209002.8</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,7 +2753,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>384816</v>
+        <v>372600</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,7 +2761,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>201000</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2856,7 +2769,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>254280</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,7 +2777,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>348300</v>
+        <v>191302.8</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,7 +2785,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>264000</v>
+        <v>209002.8</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,7 +2793,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>303243.6</v>
+        <v>441180</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,7 +2801,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>348000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,7 +2809,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>253836</v>
+        <v>708000</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,7 +2817,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>360000</v>
+        <v>221278.8</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2912,7 +2825,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>252000</v>
+        <v>236002.8</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,7 +2833,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>221002.8</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,7 +2841,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>817714.8</v>
+        <v>217402.8</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,7 +2849,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>443520</v>
+        <v>261870</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2944,7 +2857,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>166572</v>
+        <v>267960</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,7 +2865,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>264000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,7 +2873,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>175944</v>
+        <v>253572</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,7 +2881,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>198838.8</v>
+        <v>480048</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,7 +2889,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>225286.8</v>
+        <v>266400</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,7 +2897,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>237802.8</v>
+        <v>197002.8</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,7 +2905,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>324000</v>
+        <v>1800183.798</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +2913,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>252876</v>
+        <v>203602.8</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,7 +2921,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>342000</v>
+        <v>322500</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,7 +2929,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>600915</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,7 +2937,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>201802.8</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,7 +2945,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>167700</v>
+        <v>424272</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,7 +2953,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>361848</v>
+        <v>243120</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,7 +2961,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>312000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3056,7 +2969,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>215983.92</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,7 +2977,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>221002.8</v>
+        <v>267300</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3072,7 +2985,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>372600</v>
+        <v>268284</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,7 +2993,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>276000</v>
+        <v>300696</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,7 +3001,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>420000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,7 +3009,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>191302.8</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,7 +3017,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>209002.8</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,7 +3025,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>441180</v>
+        <v>161002.8</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,7 +3033,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>480000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,7 +3041,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>708000</v>
+        <v>158656.5672</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,7 +3049,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>221278.8</v>
+        <v>158656.5672</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,7 +3057,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>236002.8</v>
+        <v>298944</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3152,7 +3065,7 @@
         <v>256</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>360000</v>
+        <v>372432</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,7 +3073,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>217402.8</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,7 +3081,7 @@
         <v>258</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>261870</v>
+        <v>481440</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,7 +3089,7 @@
         <v>259</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>267960</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3184,7 +3097,7 @@
         <v>260</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>420000</v>
+        <v>867300</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,7 +3105,7 @@
         <v>261</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>253572</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,7 +3113,7 @@
         <v>262</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>480048</v>
+        <v>185002.8</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,7 +3121,7 @@
         <v>263</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>266400</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3216,7 +3129,7 @@
         <v>264</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>197002.8</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,7 +3137,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>1800183.798</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,7 +3145,7 @@
         <v>266</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>203602.8</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,7 +3153,7 @@
         <v>267</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>322500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,7 +3161,7 @@
         <v>268</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>270000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,7 +3169,7 @@
         <v>269</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>240000</v>
+        <v>158604</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,7 +3177,7 @@
         <v>270</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>424272</v>
+        <v>238944</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,7 +3185,7 @@
         <v>271</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>243120</v>
+        <v>244200</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,7 +3193,7 @@
         <v>272</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>450000</v>
+        <v>177706.8</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,7 +3201,7 @@
         <v>273</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>144000</v>
+        <v>514944</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,7 +3209,7 @@
         <v>274</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>267300</v>
+        <v>252012</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3304,7 +3217,7 @@
         <v>275</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>268284</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,7 +3225,7 @@
         <v>276</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>300696</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,7 +3233,7 @@
         <v>277</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>96000</v>
+        <v>173688</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,7 +3241,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="0" t="n">
-        <v>86400</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,7 +3249,7 @@
         <v>279</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>120000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,7 +3257,7 @@
         <v>280</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>161002.8</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,7 +3265,7 @@
         <v>281</v>
       </c>
       <c r="B281" s="0" t="n">
-        <v>240000</v>
+        <v>336120</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,7 +3273,7 @@
         <v>282</v>
       </c>
       <c r="B282" s="0" t="n">
-        <v>158656.5672</v>
+        <v>265884</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,7 +3281,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="0" t="n">
-        <v>158656.5672</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,7 +3289,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="0" t="n">
-        <v>298944</v>
+        <v>241812</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,7 +3297,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="0" t="n">
-        <v>372432</v>
+        <v>227928</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,7 +3305,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="0" t="n">
-        <v>252000</v>
+        <v>169212</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,7 +3313,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="0" t="n">
-        <v>481440</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,238 +3329,6 @@
         <v>289</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>867300</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B290" s="0" t="n">
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B291" s="0" t="n">
-        <v>185002.8</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B292" s="0" t="n">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B293" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B294" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B295" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B296" s="0" t="n">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B297" s="0" t="n">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B298" s="0" t="n">
-        <v>158604</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B299" s="0" t="n">
-        <v>238944</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B300" s="0" t="n">
-        <v>244200</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B301" s="0" t="n">
-        <v>177706.8</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B302" s="0" t="n">
-        <v>514944</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B303" s="0" t="n">
-        <v>252012</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B304" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B305" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B306" s="0" t="n">
-        <v>173688</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B307" s="0" t="n">
-        <v>264000</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B308" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B309" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B310" s="0" t="n">
-        <v>336120</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B311" s="0" t="n">
-        <v>265884</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B312" s="0" t="n">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B313" s="0" t="n">
-        <v>241812</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B314" s="0" t="n">
-        <v>227928</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B315" s="0" t="n">
-        <v>169212</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B316" s="0" t="n">
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B317" s="0" t="n">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B318" s="0" t="n">
         <v>336000</v>
       </c>
     </row>

--- a/contract_update.xlsx
+++ b/contract_update.xlsx
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/contract_update.xlsx
+++ b/contract_update.xlsx
@@ -20,99 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t xml:space="preserve">barcode</t>
   </si>
   <si>
     <t xml:space="preserve">base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1160</t>
   </si>
   <si>
     <t xml:space="preserve">1162</t>
@@ -1009,10 +922,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B260"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1033,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>348852</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>191002.8</v>
+        <v>384426</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>203002.8</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>158602.8</v>
+        <v>235192.8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,7 +978,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>162535.8</v>
+        <v>284095.2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>252012</v>
+        <v>186754.8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>337879.2</v>
+        <v>309441.6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>236967</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>111053.9472</v>
+        <v>264720</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>113069.9472</v>
+        <v>273780</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>436632</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>158602.8</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>150344.2632</v>
+        <v>317304</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,7 +1050,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>422400</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,7 +1058,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>360654</v>
+        <v>328152</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,7 +1066,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>288000</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,7 +1074,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>151402.8</v>
+        <v>298320</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,7 +1082,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>360000</v>
+        <v>239002.8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,7 +1090,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>290400</v>
+        <v>455616</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,7 +1098,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>111053.9472</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,7 +1106,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>111053.9472</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,7 +1114,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>134709.4212</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,7 +1122,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>360000</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,7 +1130,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>429576</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,7 +1138,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>277992</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,7 +1146,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>191002.8</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,7 +1154,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>402732</v>
+        <v>339000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,7 +1162,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>427200</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,7 +1170,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>627288</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,7 +1178,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>336000</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,7 +1186,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>384426</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,7 +1194,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>233002.8</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,7 +1202,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>235192.8</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,7 +1210,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>284095.2</v>
+        <v>321000</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,7 +1218,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>186754.8</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,7 +1226,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>309441.6</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,7 +1234,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>221002.8</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,7 +1242,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>264720</v>
+        <v>222480</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,7 +1250,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>273780</v>
+        <v>222480</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,7 +1258,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>300000</v>
+        <v>170602.8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,7 +1266,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>300000</v>
+        <v>328152</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,7 +1274,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>317304</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,7 +1282,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>221002.8</v>
+        <v>188439.6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,7 +1290,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>328152</v>
+        <v>162535.8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,7 +1298,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>372900</v>
+        <v>173002.8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,7 +1306,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>298320</v>
+        <v>264143.25</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,7 +1314,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>239002.8</v>
+        <v>245002.8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,7 +1322,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>455616</v>
+        <v>203002.8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,7 +1330,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>372900</v>
+        <v>240106.8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,7 +1338,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>264000</v>
+        <v>240106.8</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,7 +1346,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>321000</v>
+        <v>372000</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,7 +1354,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>321000</v>
+        <v>205440</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,7 +1362,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>321000</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,7 +1370,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>420000</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1378,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>321000</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,7 +1386,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>339000</v>
+        <v>201600</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,7 +1394,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>720000</v>
+        <v>270192</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,7 +1402,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>321000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,7 +1410,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>321000</v>
+        <v>300105</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,7 +1418,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>321000</v>
+        <v>437310</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,7 +1426,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>321000</v>
+        <v>236662.8</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,7 +1434,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>321000</v>
+        <v>312109.2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,7 +1442,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>321000</v>
+        <v>264092.4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,7 +1450,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>309000</v>
+        <v>160042.8</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1545,7 +1458,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>309000</v>
+        <v>235192.8</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,7 +1466,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>309000</v>
+        <v>280098</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,7 +1474,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>222480</v>
+        <v>229402.8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,7 +1482,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>222480</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,7 +1490,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>170602.8</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,7 +1498,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>328152</v>
+        <v>385212</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,7 +1506,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>162535.8</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,7 +1514,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>188439.6</v>
+        <v>372000</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,7 +1522,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>162535.8</v>
+        <v>582000</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,7 +1530,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>173002.8</v>
+        <v>308880</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,7 +1538,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>264143.25</v>
+        <v>291060</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,7 +1546,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>245002.8</v>
+        <v>346500</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,7 +1554,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>203002.8</v>
+        <v>197002.8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,7 +1562,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>240106.8</v>
+        <v>554400</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,7 +1570,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>240106.8</v>
+        <v>359520</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,7 +1578,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>372000</v>
+        <v>400020</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,7 +1586,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>205440</v>
+        <v>264600</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,7 +1594,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>151200</v>
+        <v>462000</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,7 +1602,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>151200</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1697,7 +1610,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>151200</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,7 +1618,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>201600</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,7 +1626,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>270192</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,7 +1634,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>660000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1729,7 +1642,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>300105</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,7 +1650,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>437310</v>
+        <v>339000</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,7 +1658,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>236662.8</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,7 +1666,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>312109.2</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,7 +1674,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>264092.4</v>
+        <v>247200</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,7 +1682,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>160042.8</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,7 +1690,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>235192.8</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,7 +1698,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>280098</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,7 +1706,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>229402.8</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,7 +1714,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>264000</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,7 +1722,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>158602.8</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,7 +1730,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>385212</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,7 +1738,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>288000</v>
+        <v>829143</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,7 +1746,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>372000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,7 +1754,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>582000</v>
+        <v>406800</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,7 +1762,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>308880</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,7 +1770,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>291060</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,7 +1778,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>346500</v>
+        <v>161482.8</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,7 +1786,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>197002.8</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,7 +1794,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>554400</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,7 +1802,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>359520</v>
+        <v>438000</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,7 +1810,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>400020</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,7 +1818,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>264600</v>
+        <v>142595.5788</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,7 +1826,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>462000</v>
+        <v>158602.8</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,7 +1834,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>264000</v>
+        <v>265200</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,7 +1842,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>264000</v>
+        <v>145187.5788</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,7 +1850,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>264000</v>
+        <v>145187.5788</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,7 +1858,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>264000</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,7 +1866,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>264000</v>
+        <v>512388</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,7 +1874,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>264000</v>
+        <v>215950.8</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,7 +1882,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>339000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,7 +1890,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>280800</v>
+        <v>233345.7</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,7 +1898,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>280800</v>
+        <v>300434.7</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,7 +1906,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>247200</v>
+        <v>936828</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2001,7 +1914,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>256800</v>
+        <v>111379.1052</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,7 +1922,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>256800</v>
+        <v>118939.1052</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,7 +1930,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>256800</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,7 +1938,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>256800</v>
+        <v>161531.5884</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,7 +1946,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>256800</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,7 +1954,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>375000</v>
+        <v>229363.2</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,7 +1962,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>264000</v>
+        <v>477888</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,7 +1970,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>829143</v>
+        <v>179002.8</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,7 +1978,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>264000</v>
+        <v>194002.8</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,7 +1986,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>406800</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,7 +1994,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>252000</v>
+        <v>358253.28</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,7 +2002,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>280800</v>
+        <v>233002.8</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,7 +2010,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>161482.8</v>
+        <v>230602.8</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,7 +2018,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>280800</v>
+        <v>285714</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,7 +2026,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>315000</v>
+        <v>285714</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,7 +2034,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>438000</v>
+        <v>149002.8</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2129,7 +2042,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>264000</v>
+        <v>179002.8</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,7 +2050,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>142595.5788</v>
+        <v>236050.8</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2145,7 +2058,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>158602.8</v>
+        <v>403200</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,7 +2066,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>265200</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,7 +2074,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>145187.5788</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,7 +2082,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>145187.5788</v>
+        <v>227002.8</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2177,7 +2090,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>233002.8</v>
+        <v>254100</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,7 +2098,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>512388</v>
+        <v>145223.6316</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,7 +2106,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>215950.8</v>
+        <v>110596.842</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,7 +2114,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>288000</v>
+        <v>276600</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,7 +2122,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>233345.7</v>
+        <v>300101.76</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2217,7 +2130,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>300434.7</v>
+        <v>239722.8</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,7 +2138,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>936828</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,7 +2146,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>111379.1052</v>
+        <v>239722.8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,7 +2154,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>118939.1052</v>
+        <v>254280</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2249,7 +2162,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>360000</v>
+        <v>327320.4</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,7 +2170,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>161531.5884</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,7 +2178,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>300000</v>
+        <v>180807</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2273,7 +2186,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>229363.2</v>
+        <v>191002.8</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,7 +2194,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>477888</v>
+        <v>209002.8</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,7 +2202,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>179002.8</v>
+        <v>384816</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,7 +2210,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>194002.8</v>
+        <v>201000</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,7 +2218,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>264000</v>
+        <v>254280</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,7 +2226,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>358253.28</v>
+        <v>348300</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,7 +2234,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>233002.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,7 +2242,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>230602.8</v>
+        <v>303243.6</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,7 +2250,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>285714</v>
+        <v>348000</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,7 +2258,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>285714</v>
+        <v>253836</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,7 +2266,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>149002.8</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,7 +2274,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>179002.8</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,7 +2282,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>236050.8</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,7 +2290,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>403200</v>
+        <v>817714.8</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,7 +2298,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>360000</v>
+        <v>443520</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,7 +2306,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>288000</v>
+        <v>166572</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,7 +2314,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>227002.8</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,7 +2322,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>254100</v>
+        <v>175944</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2417,7 +2330,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>145223.6316</v>
+        <v>198838.8</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,7 +2338,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>110596.842</v>
+        <v>225286.8</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2433,7 +2346,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>276600</v>
+        <v>237802.8</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,7 +2354,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>300101.76</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,7 +2362,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>239722.8</v>
+        <v>252876</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,7 +2370,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>264000</v>
+        <v>342000</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,7 +2378,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>239722.8</v>
+        <v>600915</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,7 +2386,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>254280</v>
+        <v>201802.8</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,7 +2394,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>327320.4</v>
+        <v>167700</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,7 +2402,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>300000</v>
+        <v>361848</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,7 +2410,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>180807</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,7 +2418,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>191002.8</v>
+        <v>215983.92</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,7 +2426,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>209002.8</v>
+        <v>221002.8</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,7 +2434,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>384816</v>
+        <v>372600</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,7 +2442,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>201000</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,7 +2450,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>254280</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,7 +2458,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>348300</v>
+        <v>191302.8</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,7 +2466,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>264000</v>
+        <v>209002.8</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,7 +2474,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>303243.6</v>
+        <v>441180</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,7 +2482,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>348000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,7 +2490,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>253836</v>
+        <v>708000</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,7 +2498,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>360000</v>
+        <v>221278.8</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,7 +2506,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>252000</v>
+        <v>236002.8</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,7 +2514,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>221002.8</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,7 +2522,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>817714.8</v>
+        <v>217402.8</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,7 +2530,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>443520</v>
+        <v>261870</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,7 +2538,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>166572</v>
+        <v>267960</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,7 +2546,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>264000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2641,7 +2554,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>175944</v>
+        <v>253572</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,7 +2562,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>198838.8</v>
+        <v>480048</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,7 +2570,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>225286.8</v>
+        <v>266400</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,7 +2578,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>237802.8</v>
+        <v>197002.8</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,7 +2586,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>324000</v>
+        <v>1800183.798</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2681,7 +2594,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>252876</v>
+        <v>203602.8</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,7 +2602,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>342000</v>
+        <v>322500</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,7 +2610,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>600915</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,7 +2618,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>201802.8</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,7 +2626,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>167700</v>
+        <v>424272</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,7 +2634,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>361848</v>
+        <v>243120</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,7 +2642,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>312000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,7 +2650,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>215983.92</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,7 +2658,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>221002.8</v>
+        <v>267300</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2753,7 +2666,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>372600</v>
+        <v>268284</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,7 +2674,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>276000</v>
+        <v>300696</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,7 +2682,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>420000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,7 +2690,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>191302.8</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,7 +2698,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>209002.8</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,7 +2706,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>441180</v>
+        <v>161002.8</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,7 +2714,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>480000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2809,7 +2722,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>708000</v>
+        <v>158656.5672</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,7 +2730,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>221278.8</v>
+        <v>158656.5672</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,7 +2738,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>236002.8</v>
+        <v>298944</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,7 +2746,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>360000</v>
+        <v>372432</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,7 +2754,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>217402.8</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,7 +2762,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>261870</v>
+        <v>481440</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,7 +2770,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>267960</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2865,7 +2778,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>420000</v>
+        <v>867300</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,7 +2786,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>253572</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,7 +2794,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>480048</v>
+        <v>185002.8</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,7 +2802,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>266400</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,7 +2810,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>197002.8</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,7 +2818,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>1800183.798</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,7 +2826,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>203602.8</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,7 +2834,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>322500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,7 +2842,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>270000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,7 +2850,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>240000</v>
+        <v>158604</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,7 +2858,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>424272</v>
+        <v>238944</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,7 +2866,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>243120</v>
+        <v>244200</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2961,7 +2874,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>450000</v>
+        <v>177706.8</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2969,7 +2882,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>144000</v>
+        <v>514944</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,7 +2890,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>267300</v>
+        <v>252012</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,7 +2898,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>268284</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,7 +2906,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>300696</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,7 +2914,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>96000</v>
+        <v>173688</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,7 +2922,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>86400</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,7 +2930,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>120000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,7 +2938,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>161002.8</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3033,7 +2946,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>240000</v>
+        <v>336120</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3041,7 +2954,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>158656.5672</v>
+        <v>265884</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,7 +2962,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>158656.5672</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,7 +2970,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>298944</v>
+        <v>241812</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,7 +2978,7 @@
         <v>256</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>372432</v>
+        <v>227928</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,7 +2986,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>252000</v>
+        <v>169212</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,7 +2994,7 @@
         <v>258</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>481440</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,238 +3010,6 @@
         <v>260</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>867300</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B261" s="0" t="n">
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B262" s="0" t="n">
-        <v>185002.8</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B263" s="0" t="n">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B264" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B265" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B266" s="0" t="n">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B267" s="0" t="n">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B268" s="0" t="n">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B269" s="0" t="n">
-        <v>158604</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B270" s="0" t="n">
-        <v>238944</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B271" s="0" t="n">
-        <v>244200</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B272" s="0" t="n">
-        <v>177706.8</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B273" s="0" t="n">
-        <v>514944</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B274" s="0" t="n">
-        <v>252012</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B275" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B276" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B277" s="0" t="n">
-        <v>173688</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B278" s="0" t="n">
-        <v>264000</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B279" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B280" s="0" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B281" s="0" t="n">
-        <v>336120</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B282" s="0" t="n">
-        <v>265884</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B283" s="0" t="n">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B284" s="0" t="n">
-        <v>241812</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B285" s="0" t="n">
-        <v>227928</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B286" s="0" t="n">
-        <v>169212</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B287" s="0" t="n">
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B288" s="0" t="n">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B289" s="0" t="n">
         <v>336000</v>
       </c>
     </row>
